--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail14 Features.xlsx
@@ -5070,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,29 +5081,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5124,115 +5122,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5249,72 +5237,66 @@
         <v>2.121604067360622e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.716618841341076</v>
+        <v>1.418325051250883e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.49578041510966</v>
+        <v>3.256814412284035e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.418325051250883e-06</v>
+        <v>-0.1061638751745757</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.256814412284035e-06</v>
+        <v>0.3189309938571906</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1061638751745757</v>
+        <v>0.1127173384282467</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3189309938571906</v>
+        <v>1.773772719810788</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1127173384282467</v>
+        <v>1.678167604602407</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.70116544158236</v>
+        <v>4.381654302785121</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.678167604602407</v>
+        <v>1.295699680789204e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.381654302785121</v>
+        <v>150182605.2360806</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.295699680789204e-15</v>
+        <v>7.752863326473399e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>150182605.2360806</v>
+        <v>29.22426648626827</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.752863326473399e-07</v>
+        <v>9.689387593681357e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29.22426648626827</v>
+        <v>5.916347600895204</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.689387593681357e-05</v>
+        <v>1.435233579553279</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5.916347600895204</v>
+        <v>0.003391592708146245</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.435233579553279</v>
+        <v>3.426301520512545</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003391592708146245</v>
+        <v>0.9527057239079276</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.426301520512545</v>
+        <v>1.709288347632555</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9527057239079276</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.709288347632555</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2760982721228583</v>
       </c>
     </row>
@@ -5329,72 +5311,66 @@
         <v>1.551348903403687e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.651141100725813</v>
+        <v>1.043121481411217e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.21020799855108</v>
+        <v>3.237743319768688e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.043121481411217e-06</v>
+        <v>-0.1030828800431989</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.237743319768688e-06</v>
+        <v>0.3198748873756966</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1030828800431989</v>
+        <v>0.1126748567303026</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3198748873756966</v>
+        <v>1.793562085402922</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1126748567303026</v>
+        <v>1.913799020415551</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.718035674548337</v>
+        <v>4.430765287635777</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.913799020415551</v>
+        <v>1.267135572347476e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.430765287635777</v>
+        <v>153945007.3767924</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.267135572347476e-15</v>
+        <v>7.602683396171282e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>153945007.3767924</v>
+        <v>30.02992866825212</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.602683396171282e-07</v>
+        <v>0.0001139588788045385</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>30.02992866825212</v>
+        <v>7.964429658927608</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001139588788045385</v>
+        <v>1.435009980561134</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.964429658927608</v>
+        <v>0.007228655530869726</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.435009980561134</v>
+        <v>3.121821813340751</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007228655530869726</v>
+        <v>0.954858956691758</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.121821813340751</v>
+        <v>1.701705738962913</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.954858956691758</v>
+        <v>45</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.701705738962913</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.263205156156274</v>
       </c>
     </row>
@@ -5409,72 +5385,66 @@
         <v>1.138698677441386e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.51972600261614</v>
+        <v>7.743849671878439e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.72383362457543</v>
+        <v>3.224271709195602e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.743849671878439e-07</v>
+        <v>-0.09874835566508977</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.224271709195602e-06</v>
+        <v>0.3259226127674162</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09874835566508977</v>
+        <v>0.1157212807603161</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3259226127674162</v>
+        <v>1.761546439626944</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1157212807603161</v>
+        <v>1.874870567179365</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.680762471106851</v>
+        <v>4.226121607656032</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.874870567179365</v>
+        <v>1.392825125901041e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.226121607656032</v>
+        <v>140723936.3190893</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.392825125901041e-15</v>
+        <v>8.196153524154961e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>140723936.3190893</v>
+        <v>27.58243109927528</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.196153524154961e-07</v>
+        <v>0.0001344153470552321</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>27.58243109927528</v>
+        <v>9.53759640772061</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001344153470552321</v>
+        <v>1.34011861590311</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.53759640772061</v>
+        <v>0.01222719221611072</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.34011861590311</v>
+        <v>2.892352466688787</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01222719221611072</v>
+        <v>0.9537295884809184</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.892352466688787</v>
+        <v>1.703198867799702</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9537295884809184</v>
+        <v>50</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.703198867799702</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.256504627795851</v>
       </c>
     </row>
@@ -5489,72 +5459,66 @@
         <v>8.392020649397343e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.196546592548509</v>
+        <v>5.77653346931967e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.20098057039368</v>
+        <v>3.214836816977996e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.77653346931967e-07</v>
+        <v>-0.09321346040999096</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.214836816977996e-06</v>
+        <v>0.3356677687501283</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09321346040999096</v>
+        <v>0.1210893202862659</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3356677687501283</v>
+        <v>1.738590541203225</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1210893202862659</v>
+        <v>1.830818309003143</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.65034147993807</v>
+        <v>3.785834821957363</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.830818309003143</v>
+        <v>2.013990251648946e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.785834821957363</v>
+        <v>93905781.03393064</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.013990251648946e-15</v>
+        <v>1.217844103642771e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>93905781.03393064</v>
+        <v>17.75996159930506</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.217844103642771e-06</v>
+        <v>0.0001346319594717499</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>17.75996159930506</v>
+        <v>8.829966546047325</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001346319594717499</v>
+        <v>1.280377822204876</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.829966546047325</v>
+        <v>0.01049702624487619</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.280377822204876</v>
+        <v>3.099299006482328</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01049702624487619</v>
+        <v>0.9540549186243656</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.099299006482328</v>
+        <v>1.757500496840414</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9540549186243656</v>
+        <v>50</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.757500496840414</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2477540388500185</v>
       </c>
     </row>
@@ -5569,72 +5533,66 @@
         <v>6.302462188956581e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.561988242179121</v>
+        <v>4.262215422869598e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8.869264690611264</v>
+        <v>3.208365204666758e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.262215422869598e-07</v>
+        <v>-0.08339769941681527</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.208365204666758e-06</v>
+        <v>0.3335353467619777</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08339769941681527</v>
+        <v>0.1179198980022069</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3335353467619777</v>
+        <v>1.714417218646245</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1179198980022069</v>
+        <v>1.734106908102305</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.624095645777166</v>
+        <v>3.753721030942697</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.734106908102305</v>
+        <v>2.048597790613597e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.753721030942697</v>
+        <v>92572682.31400752</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.048597790613597e-15</v>
+        <v>1.229465258110729e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>92572682.31400752</v>
+        <v>17.5558715812637</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.229465258110729e-06</v>
+        <v>0.0001356176837348115</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>17.5558715812637</v>
+        <v>8.722809734094691</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001356176837348115</v>
+        <v>1.349334400340209</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.722809734094691</v>
+        <v>0.01031879825909351</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.349334400340209</v>
+        <v>3.183592670981778</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01031879825909351</v>
+        <v>0.9534670665192392</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.183592670981778</v>
+        <v>1.778289487682429</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9534670665192392</v>
+        <v>50</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.778289487682429</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.235722257002785</v>
       </c>
     </row>
@@ -5649,72 +5607,66 @@
         <v>4.96899391255137e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.690563029216343</v>
+        <v>3.132817748954805e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.45270736664119</v>
+        <v>3.204129384299297e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.132817748954805e-07</v>
+        <v>-0.06687604340119023</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.204129384299297e-06</v>
+        <v>0.3142003780217875</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06687604340119023</v>
+        <v>0.1029531418017553</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3142003780217875</v>
+        <v>1.7502659550533</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1029531418017553</v>
+        <v>1.642787445230044</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.66636894117258</v>
+        <v>3.981725062605936</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.642787445230044</v>
+        <v>1.82069898301907e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.981725062605936</v>
+        <v>102049470.8005266</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.82069898301907e-15</v>
+        <v>1.127259911324262e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>102049470.8005266</v>
+        <v>18.96093124822289</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.127259911324262e-06</v>
+        <v>0.0001311041481385453</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>18.96093124822289</v>
+        <v>9.548041458886447</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001311041481385453</v>
+        <v>1.218116813712764</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.548041458886447</v>
+        <v>0.01195212221179801</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.218116813712764</v>
+        <v>3.037421679839833</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01195212221179801</v>
+        <v>0.9548488982173572</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.037421679839833</v>
+        <v>1.723770092669286</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9548488982173572</v>
+        <v>47</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.723770092669286</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2503604527066269</v>
       </c>
     </row>
@@ -5729,72 +5681,66 @@
         <v>4.2186717400283e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9039771209195331</v>
+        <v>2.329434613002939e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.9631753197940518</v>
+        <v>3.201560303205941e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.329434613002939e-07</v>
+        <v>-0.04529086305335092</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.201560303205941e-06</v>
+        <v>0.2827632052954699</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04529086305335092</v>
+        <v>0.08184966540311674</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2827632052954699</v>
+        <v>1.726133877178612</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.08184966540311674</v>
+        <v>1.818488741757545</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.642465601925091</v>
+        <v>4.425667738529615</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.818488741757545</v>
+        <v>1.473747480818495e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.425667738529615</v>
+        <v>128449538.9401601</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.473747480818495e-15</v>
+        <v>8.885610927055413e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>128449538.9401601</v>
+        <v>24.31577830980241</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.885610927055413e-07</v>
+        <v>0.0001311544739286178</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>24.31577830980241</v>
+        <v>9.394806387947613</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001311544739286178</v>
+        <v>1.3256899025642</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.394806387947613</v>
+        <v>0.01157600694345922</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.3256899025642</v>
+        <v>3.025158503688607</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01157600694345922</v>
+        <v>0.9549044890551052</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.025158503688607</v>
+        <v>1.737188539046188</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9549044890551052</v>
+        <v>48</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.737188539046188</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2454282302565672</v>
       </c>
     </row>
@@ -5809,72 +5755,66 @@
         <v>3.850780731979397e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4490194127549291</v>
+        <v>1.797707063143113e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6709390103101041</v>
+        <v>3.200129290416083e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.797707063143113e-07</v>
+        <v>-0.02710975821325981</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.200129290416083e-06</v>
+        <v>0.2557025323833541</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02710975821325981</v>
+        <v>0.06603842892274034</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2557025323833541</v>
+        <v>1.730630449398116</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06603842892274034</v>
+        <v>1.7097715363119</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.648799087272151</v>
+        <v>3.903422237239747</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.7097715363119</v>
+        <v>1.894478248844e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.903422237239747</v>
+        <v>101874639.4167134</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.894478248844e-15</v>
+        <v>1.125846407372258e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>101874639.4167134</v>
+        <v>19.66173292196828</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.125846407372258e-06</v>
+        <v>0.0001212656682077614</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>19.66173292196828</v>
+        <v>8.383699930973743</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001212656682077614</v>
+        <v>1.490879630504845</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.383699930973743</v>
+        <v>0.008523330236881243</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.490879630504845</v>
+        <v>3.11191431471629</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008523330236881243</v>
+        <v>0.9563055034903406</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.11191431471629</v>
+        <v>1.767213713208879</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9563055034903406</v>
+        <v>43</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.767213713208879</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2656559448289931</v>
       </c>
     </row>
@@ -5889,72 +5829,66 @@
         <v>3.683332999375228e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2637769282634126</v>
+        <v>1.454608123837176e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.172582793197838</v>
+        <v>3.199348608739384e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.454608123837176e-07</v>
+        <v>-0.0154314643181803</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.199348608739384e-06</v>
+        <v>0.2401497799309081</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0154314643181803</v>
+        <v>0.05787467408898186</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2401497799309081</v>
+        <v>1.704441597941985</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05787467408898186</v>
+        <v>1.682600444933683</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.615432130196609</v>
+        <v>3.915712362617106</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.682600444933683</v>
+        <v>1.882604631149391e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.915712362617106</v>
+        <v>104183371.9537137</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.882604631149391e-15</v>
+        <v>1.091830502634892e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>104183371.9537137</v>
+        <v>20.4341201065784</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.091830502634892e-06</v>
+        <v>0.0001144245206595576</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>20.4341201065784</v>
+        <v>7.309464867860603</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001144245206595576</v>
+        <v>1.740056762983995</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.309464867860603</v>
+        <v>0.006113504945856071</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.740056762983995</v>
+        <v>3.285757555187516</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006113504945856071</v>
+        <v>0.9562249864594718</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.285757555187516</v>
+        <v>1.736059740944874</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9562249864594718</v>
+        <v>48</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.736059740944874</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2677261634406899</v>
       </c>
     </row>
@@ -5969,72 +5903,66 @@
         <v>3.610651868388816e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2038485922923748</v>
+        <v>1.233895495012991e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.283722016567577</v>
+        <v>3.198939841887786e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.233895495012991e-07</v>
+        <v>-0.00731809814326159</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.198939841887786e-06</v>
+        <v>0.2326115104867541</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.00731809814326159</v>
+        <v>0.05414297324044721</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2326115104867541</v>
+        <v>1.696532586790571</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05414297324044721</v>
+        <v>1.654019933143358</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.611014241710475</v>
+        <v>3.984963644350467</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.654019933143358</v>
+        <v>1.817740819794638e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.984963644350467</v>
+        <v>108785021.5801211</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.817740819794638e-15</v>
+        <v>1.042761175566111e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>108785021.5801211</v>
+        <v>21.51147372745953</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.042761175566111e-06</v>
+        <v>0.0001143733475979519</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>21.51147372745953</v>
+        <v>7.632627753219489</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001143733475979519</v>
+        <v>1.758673925509441</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.632627753219489</v>
+        <v>0.006663048845201152</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.758673925509441</v>
+        <v>3.279056543102811</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006663048845201152</v>
+        <v>0.9551606147011886</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.279056543102811</v>
+        <v>1.760657696941918</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9551606147011886</v>
+        <v>48</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.760657696941918</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2608093091020308</v>
       </c>
     </row>
@@ -6049,72 +5977,66 @@
         <v>3.589143185588403e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1922165598630046</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.294664339172044</v>
+        <v>3.198798068764691e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>-0.001201759887187628</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.198798068764691e-06</v>
+        <v>0.2264834972912873</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.001201759887187628</v>
+        <v>0.0512858229006912</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2264834972912873</v>
+        <v>1.707625266934483</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0512858229006912</v>
+        <v>1.805488751687145</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.618902625290737</v>
+        <v>4.030965554192036</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.805488751687145</v>
+        <v>1.776488961134739e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.030965554192036</v>
+        <v>112734316.9855539</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.776488961134739e-15</v>
+        <v>1.010893339416404e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>112734316.9855539</v>
+        <v>22.57744479761504</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.010893339416404e-06</v>
+        <v>0.0001140168469879563</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.57744479761504</v>
+        <v>7.99130394206308</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001140168469879563</v>
+        <v>1.401741228300072</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.99130394206308</v>
+        <v>0.007281222875630417</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.401741228300072</v>
+        <v>3.124825900727722</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007281222875630417</v>
+        <v>0.9563967592194639</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.124825900727722</v>
+        <v>1.780876608952252</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9563967592194639</v>
+        <v>47</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.780876608952252</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.262948279243559</v>
       </c>
     </row>
@@ -6129,72 +6051,66 @@
         <v>3.590315782768661e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1921734096691753</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.295660524817507</v>
+        <v>3.198809809169806e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>0.001325556523516783</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.198809809169806e-06</v>
+        <v>0.2240355136662689</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.001325556523516783</v>
+        <v>0.05019077081683799</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2240355136662689</v>
+        <v>1.699297675409121</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05019077081683799</v>
+        <v>1.749924106971859</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.607992933991396</v>
+        <v>4.014471114001005</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.749924106971859</v>
+        <v>1.791117233556401e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.014471114001005</v>
+        <v>111271168.1101764</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.791117233556401e-15</v>
+        <v>1.01994354313762e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>111271168.1101764</v>
+        <v>22.17631117966148</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.01994354313762e-06</v>
+        <v>0.0001101565302173679</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>22.17631117966148</v>
+        <v>7.486454643514133</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001101565302173679</v>
+        <v>1.384156649144431</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.486454643514133</v>
+        <v>0.006173943393816037</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.384156649144431</v>
+        <v>3.165740322169328</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006173943393816037</v>
+        <v>0.9563113296374215</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.165740322169328</v>
+        <v>1.736165742721685</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9563113296374215</v>
+        <v>40</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.736165742721685</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2591066250735823</v>
       </c>
     </row>
@@ -6209,72 +6125,66 @@
         <v>3.598345130484686e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1918251640985782</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.302151661843631</v>
+        <v>3.198885198454299e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>0.003229287509589569</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.198885198454299e-06</v>
+        <v>0.2227792860605716</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.003229287509589569</v>
+        <v>0.04963879578849206</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2227792860605716</v>
+        <v>1.697539164890342</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04963879578849206</v>
+        <v>1.731057546266701</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.600950015864524</v>
+        <v>4.041890547254843</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.731057546266701</v>
+        <v>1.973933874633084e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.041890547254843</v>
+        <v>100051397.8952799</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.973933874633084e-15</v>
+        <v>1.130510594923079e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>100051397.8952799</v>
+        <v>19.75963517027366</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.130510594923079e-06</v>
+        <v>0.0001108185390026095</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>19.75963517027366</v>
+        <v>7.203723178180302</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001108185390026095</v>
+        <v>1.491248710980344</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.203723178180302</v>
+        <v>0.005750775997264021</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.491248710980344</v>
+        <v>3.144778225560835</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.005750775997264021</v>
+        <v>0.956362060800881</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.144778225560835</v>
+        <v>1.770333529537166</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.956362060800881</v>
+        <v>40</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.770333529537166</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2673912436188623</v>
       </c>
     </row>
@@ -6289,72 +6199,66 @@
         <v>3.620067996387048e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1883474836259338</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.322692316401933</v>
+        <v>3.199104643855419e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>0.009739627970158449</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.199104643855419e-06</v>
+        <v>0.2193774445724682</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.009739627970158449</v>
+        <v>0.0482121946479696</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2193774445724682</v>
+        <v>1.675607076716954</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0482121946479696</v>
+        <v>1.747384920048886</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.578425027788255</v>
+        <v>3.868320004901305</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.747384920048886</v>
+        <v>2.180092569161025e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.868320004901305</v>
+        <v>88421082.00007345</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.180092569161025e-15</v>
+        <v>1.268359537727721e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>88421082.00007345</v>
+        <v>17.04459101003583</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.268359537727721e-06</v>
+        <v>0.0001096681984435294</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>17.04459101003583</v>
+        <v>7.073442025849315</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001096681984435294</v>
+        <v>1.651103150151763</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.073442025849315</v>
+        <v>0.005487092809821363</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.651103150151763</v>
+        <v>3.241806871247122</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005487092809821363</v>
+        <v>0.9559009217176485</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.241806871247122</v>
+        <v>1.793290457285018</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9559009217176485</v>
+        <v>40</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.793290457285018</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2732196084092508</v>
       </c>
     </row>
@@ -6369,72 +6273,66 @@
         <v>3.666107345554757e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.176798113617043</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.365277866891853</v>
+        <v>3.199611718278771e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>0.01777441342027226</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.199611718278771e-06</v>
+        <v>0.2134610088068304</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.01777441342027226</v>
+        <v>0.04587519228721182</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2134610088068304</v>
+        <v>1.660632927599163</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04587519228721182</v>
+        <v>1.653320201807394</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.563245525703341</v>
+        <v>3.921897590901148</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.653320201807394</v>
+        <v>2.120934339782706e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.921897590901148</v>
+        <v>90721691.3622648</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.120934339782706e-15</v>
+        <v>1.231529129200512e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>90721691.3622648</v>
+        <v>17.45619161506675</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.231529129200512e-06</v>
+        <v>0.0001269583964729541</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>17.45619161506675</v>
+        <v>9.074447882413574</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001269583964729541</v>
+        <v>1.668361502499167</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.074447882413574</v>
+        <v>0.01045446588749276</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.668361502499167</v>
+        <v>3.145741830724431</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01045446588749276</v>
+        <v>0.9555133689175638</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.145741830724431</v>
+        <v>1.78873229164515</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9555133689175638</v>
+        <v>43</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.78873229164515</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2975527107701082</v>
       </c>
     </row>
@@ -6449,72 +6347,66 @@
         <v>3.727972606985322e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1561559392551852</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.416173250168433</v>
+        <v>3.20036631181552e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>0.02222784666196951</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.20036631181552e-06</v>
+        <v>0.2084593297918109</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02222784666196951</v>
+        <v>0.04394873434448952</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2084593297918109</v>
+        <v>1.649317189503022</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04394873434448952</v>
+        <v>1.667203346216825</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.553394408319762</v>
+        <v>4.145142041665689</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.667203346216825</v>
+        <v>1.898632399925795e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.145142041665689</v>
+        <v>100861771.5938965</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.898632399925795e-15</v>
+        <v>1.105621322796498e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>100861771.5938965</v>
+        <v>19.31497151304299</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.105621322796498e-06</v>
+        <v>0.0001325020746720048</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>19.31497151304299</v>
+        <v>9.544005324418327</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001325020746720048</v>
+        <v>1.623521540445719</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.544005324418327</v>
+        <v>0.01206935396411126</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.623521540445719</v>
+        <v>3.109086528833074</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01206935396411126</v>
+        <v>0.9545367852368962</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.109086528833074</v>
+        <v>1.780552756757121</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9545367852368962</v>
+        <v>46</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.780552756757121</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3039077427014245</v>
       </c>
     </row>
@@ -6529,72 +6421,66 @@
         <v>3.796452633251188e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1343246325983673</v>
+        <v>1.190297840719123e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.462353861078332</v>
+        <v>3.201221635214386e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.190297840719123e-07</v>
+        <v>0.02305779311790986</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.201221635214386e-06</v>
+        <v>0.204952224599274</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02305779311790986</v>
+        <v>0.04253482025275571</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.204952224599274</v>
+        <v>1.6506342164841</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04253482025275571</v>
+        <v>1.788290577069263</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.553317266258147</v>
+        <v>4.039348944895607</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.788290577069263</v>
+        <v>1.9993875254998e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.039348944895607</v>
+        <v>97258694.51942334</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.9993875254998e-15</v>
+        <v>1.149185655809506e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>97258694.51942334</v>
+        <v>18.91271376758757</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.149185655809506e-06</v>
+        <v>0.0001260654587152558</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>18.91271376758757</v>
+        <v>8.426392850077455</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001260654587152558</v>
+        <v>1.663116690221967</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.426392850077455</v>
+        <v>0.008951163991375818</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.663116690221967</v>
+        <v>3.129487027582247</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008951163991375818</v>
+        <v>0.9553425268418221</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.129487027582247</v>
+        <v>1.800109030128008</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9553425268418221</v>
+        <v>26</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.800109030128008</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2965872952213677</v>
       </c>
     </row>
@@ -6609,72 +6495,66 @@
         <v>3.877956760515717e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1234740103207944</v>
+        <v>1.270120814787247e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.492415496077642</v>
+        <v>3.202138581057596e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.270120814787247e-07</v>
+        <v>0.02507612369529373</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.202138581057596e-06</v>
+        <v>0.2025089233137685</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02507612369529373</v>
+        <v>0.04163260220789078</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2025089233137685</v>
+        <v>1.669023004860239</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04163260220789078</v>
+        <v>1.634419060557525</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.571471460004336</v>
+        <v>4.021385025179566</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.634419060557525</v>
+        <v>2.120684949452933e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.021385025179566</v>
+        <v>96669871.87241858</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.120684949452933e-15</v>
+        <v>1.173270379029749e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>96669871.87241858</v>
+        <v>19.81793684756121</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.173270379029749e-06</v>
+        <v>0.0001305586367587812</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>19.81793684756121</v>
+        <v>8.01819291467902</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001305586367587812</v>
+        <v>1.54617602238277</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.01819291467902</v>
+        <v>0.008393799839366164</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.54617602238277</v>
+        <v>2.907433682801303</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.008393799839366164</v>
+        <v>0.9565885347474707</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.907433682801303</v>
+        <v>1.757021250518912</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9565885347474707</v>
+        <v>22</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.757021250518912</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3010166401894719</v>
       </c>
     </row>
@@ -6689,72 +6569,66 @@
         <v>3.980679397659144e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1324540756716855</v>
+        <v>1.347724556392453e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.491276563175517</v>
+        <v>3.203139765522379e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.347724556392453e-07</v>
+        <v>0.02507371390605067</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.203139765522379e-06</v>
+        <v>0.1979042547918309</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.02507371390605067</v>
+        <v>0.03979195941119884</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1979042547918309</v>
+        <v>1.654449657687585</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03979195941119884</v>
+        <v>1.698681374538496</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.553875577227179</v>
+        <v>4.088085773534578</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.698681374538496</v>
+        <v>1.992174396216305e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.088085773534578</v>
+        <v>104570972.5449514</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.992174396216305e-15</v>
+        <v>1.077943341559415e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>104570972.5449514</v>
+        <v>21.78460292962631</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.077943341559415e-06</v>
+        <v>0.0001179016027494402</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>21.78460292962631</v>
+        <v>7.484091085685287</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001179016027494402</v>
+        <v>1.653924196143023</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.484091085685287</v>
+        <v>0.00660385969735613</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.653924196143023</v>
+        <v>3.115734433490473</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.00660385969735613</v>
+        <v>0.9557607328740584</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.115734433490473</v>
+        <v>1.796728300110584</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9557607328740584</v>
+        <v>22</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.796728300110584</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2857851560769666</v>
       </c>
     </row>
@@ -6769,72 +6643,66 @@
         <v>4.083822635897326e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1489665553314816</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.483450975943513</v>
+        <v>3.204067641742225e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.02032843085821745</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.204067641742225e-06</v>
+        <v>0.1911914013340945</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.02032843085821745</v>
+        <v>0.03696189250692609</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1911914013340945</v>
+        <v>1.676748445747933</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03696189250692609</v>
+        <v>1.780228422370479</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.573498062639005</v>
+        <v>3.854125156219772</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.780228422370479</v>
+        <v>2.241381204277939e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.854125156219772</v>
+        <v>93286177.8252479</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.241381204277939e-15</v>
+        <v>1.216554977282644e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>93286177.8252479</v>
+        <v>19.50519624921025</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.216554977282644e-06</v>
+        <v>0.0001385390232368606</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>19.50519624921025</v>
+        <v>9.881761728074384</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001385390232368606</v>
+        <v>1.617009393574317</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.881761728074384</v>
+        <v>0.0135282268452257</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.617009393574317</v>
+        <v>3.024284589747945</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0135282268452257</v>
+        <v>0.9566903893684611</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.024284589747945</v>
+        <v>1.77520737802283</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9566903893684611</v>
+        <v>19</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.77520737802283</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.304646118920566</v>
       </c>
     </row>
@@ -6849,72 +6717,66 @@
         <v>4.163602549232778e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1615053634850413</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.486895593210289</v>
+        <v>3.204755872289503e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.01305307060892817</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.204755872289503e-06</v>
+        <v>0.1851690323898795</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.01305307060892817</v>
+        <v>0.03445266352469659</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1851690323898795</v>
+        <v>1.677918037321</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03445266352469659</v>
+        <v>1.733829939241145</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.571024119893714</v>
+        <v>3.850264165301988</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.733829939241145</v>
+        <v>2.245878709452849e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.850264165301988</v>
+        <v>93363485.77539836</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.245878709452849e-15</v>
+        <v>1.216273423806688e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>93363485.77539836</v>
+        <v>19.57674185117302</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.216273423806688e-06</v>
+        <v>0.0001367981391124839</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>19.57674185117302</v>
+        <v>9.915485466003387</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001367981391124839</v>
+        <v>1.60778157112192</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.915485466003387</v>
+        <v>0.01344956240062598</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.60778157112192</v>
+        <v>3.028064604346477</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01344956240062598</v>
+        <v>0.9562409629587936</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.028064604346477</v>
+        <v>1.807175955390868</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9562409629587936</v>
+        <v>19</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.807175955390868</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2994671618961705</v>
       </c>
     </row>
@@ -6929,72 +6791,66 @@
         <v>4.213645255930869e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1684843876025511</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.494520027444956</v>
+        <v>3.205180060279802e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.007621094845469037</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.205180060279802e-06</v>
+        <v>0.1827147395311766</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.007621094845469037</v>
+        <v>0.03344079763325853</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1827147395311766</v>
+        <v>1.711498445621264</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03344079763325853</v>
+        <v>1.69216178021309</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.609101140410993</v>
+        <v>3.912966331722775</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.69216178021309</v>
+        <v>2.174478562898971e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.912966331722775</v>
+        <v>95030846.02518673</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.174478562898971e-15</v>
+        <v>1.208251311723312e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>95030846.02518673</v>
+        <v>19.63741516302879</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.208251311723312e-06</v>
+        <v>0.0001192607797776783</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>19.63741516302879</v>
+        <v>7.76689963957512</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001192607797776783</v>
+        <v>1.640919883185616</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.76689963957512</v>
+        <v>0.007194374341017454</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.640919883185616</v>
+        <v>3.120959292736118</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007194374341017454</v>
+        <v>0.9570551654982618</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.120959292736118</v>
+        <v>1.779196145923248</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9570551654982618</v>
+        <v>31</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.779196145923248</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2769968137225532</v>
       </c>
     </row>
@@ -7009,72 +6865,66 @@
         <v>4.243568913513429e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.171279339939833</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.502355143661848</v>
+        <v>3.205439001707749e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.005280025456748769</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.205439001707749e-06</v>
+        <v>0.1817435955962459</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.005280025456748769</v>
+        <v>0.03305850374534398</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1817435955962459</v>
+        <v>1.717221566274748</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03305850374534398</v>
+        <v>1.753787503435573</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.614539081957109</v>
+        <v>4.171141130202376</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.753787503435573</v>
+        <v>1.913628295437276e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.171141130202376</v>
+        <v>106881402.8169856</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.913628295437276e-15</v>
+        <v>1.072008466902953e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>106881402.8169856</v>
+        <v>21.8605897722142</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.072008466902953e-06</v>
+        <v>0.0001206770484512297</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>21.8605897722142</v>
+        <v>7.556528263349639</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001206770484512297</v>
+        <v>1.568202215335317</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.556528263349639</v>
+        <v>0.00689079455182596</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.568202215335317</v>
+        <v>3.073033710115831</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00689079455182596</v>
+        <v>0.9571026796665296</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.073033710115831</v>
+        <v>1.758304448435694</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9571026796665296</v>
+        <v>31</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.758304448435694</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2660733599724224</v>
       </c>
     </row>
@@ -7089,72 +6939,66 @@
         <v>4.270815367962382e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1726107289797813</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.511466912941959</v>
+        <v>3.205681661345901e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.006517054171969928</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.205681661345901e-06</v>
+        <v>0.1805986920883545</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.006517054171969928</v>
+        <v>0.03265772092027674</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1805986920883545</v>
+        <v>1.724961655502208</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03265772092027674</v>
+        <v>1.721830508387149</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.624440561170806</v>
+        <v>4.027960819257752</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.721830508387149</v>
+        <v>2.052092239120586e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.027960819257752</v>
+        <v>98292267.40195905</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.052092239120586e-15</v>
+        <v>1.168806353066763e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>98292267.40195905</v>
+        <v>19.82602204950626</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.168806353066763e-06</v>
+        <v>0.0001173614561458281</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>19.82602204950626</v>
+        <v>7.156708385349045</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001173614561458281</v>
+        <v>1.520513030461325</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.156708385349045</v>
+        <v>0.006011074797349482</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.520513030461325</v>
+        <v>3.141533978835195</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006011074797349482</v>
+        <v>0.9574179794624261</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.141533978835195</v>
+        <v>1.773547619658425</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9574179794624261</v>
+        <v>26</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.773547619658425</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2460553733877318</v>
       </c>
     </row>
@@ -7169,72 +7013,66 @@
         <v>4.308712776375231e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1744677581159671</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.523005150941186</v>
+        <v>3.20602022029939e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.009760363181429145</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.20602022029939e-06</v>
+        <v>0.1787345666382723</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.009760363181429145</v>
+        <v>0.03203793774250639</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1787345666382723</v>
+        <v>1.724419580438273</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03203793774250639</v>
+        <v>1.815481035250665</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.620532433359393</v>
+        <v>4.065235671753405</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.815481035250665</v>
+        <v>2.01463278533506e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.065235671753405</v>
+        <v>99534234.61792366</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.01463278533506e-15</v>
+        <v>1.154438773735444e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>99534234.61792366</v>
+        <v>19.95909566073014</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.154438773735444e-06</v>
+        <v>0.0001149328857383825</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>19.95909566073014</v>
+        <v>6.838848568373156</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001149328857383825</v>
+        <v>1.353995107654369</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.838848568373156</v>
+        <v>0.005375393796299711</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.353995107654369</v>
+        <v>3.176917391693091</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.005375393796299711</v>
+        <v>0.9560612595731095</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.176917391693091</v>
+        <v>1.792144471726567</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9560612595731095</v>
+        <v>42</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.792144471726567</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2351137203890319</v>
       </c>
     </row>
@@ -7249,72 +7087,66 @@
         <v>4.367126365484512e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.1731985124141649</v>
+        <v>1.353143359972803e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.543338451045336</v>
+        <v>3.206578973047024e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.353143359972803e-07</v>
+        <v>0.01651856492859473</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.206578973047024e-06</v>
+        <v>0.17230864300118</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.01651856492859473</v>
+        <v>0.02995325505658736</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.17230864300118</v>
+        <v>1.721358168780717</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02995325505658736</v>
+        <v>1.8757849081934</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.619628548051939</v>
+        <v>4.09253993180009</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.8757849081934</v>
+        <v>1.987840348685963e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.09253993180009</v>
+        <v>100030053.3595273</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.987840348685963e-15</v>
+        <v>1.148221632539796e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>100030053.3595273</v>
+        <v>19.8903535384222</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.148221632539796e-06</v>
+        <v>0.0001112351892635725</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>19.8903535384222</v>
+        <v>7.514976551126082</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001112351892635725</v>
+        <v>1.190208071504949</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.514976551126082</v>
+        <v>0.006281993138289883</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.190208071504949</v>
+        <v>3.113614157311206</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.006281993138289883</v>
+        <v>0.957155169192358</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.113614157311206</v>
+        <v>1.748387909140919</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.957155169192358</v>
+        <v>39</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.748387909140919</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2437918988963353</v>
       </c>
     </row>
@@ -7329,72 +7161,66 @@
         <v>4.451570514815847e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1617440047773589</v>
+        <v>1.382455908500736e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.57227465394879</v>
+        <v>3.207506377496941e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.382455908500736e-07</v>
+        <v>0.02588706824094145</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.207506377496941e-06</v>
+        <v>0.1615971570228877</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02588706824094145</v>
+        <v>0.02676833342562451</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1615971570228877</v>
+        <v>1.728150653538637</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02676833342562451</v>
+        <v>1.712676237223392</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.634698684827944</v>
+        <v>4.044158058780386</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.712676237223392</v>
+        <v>2.035687505233064e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.044158058780386</v>
+        <v>99407830.28612614</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.035687505233064e-15</v>
+        <v>1.154478016773646e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>99407830.28612614</v>
+        <v>20.11649439912656</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.154478016773646e-06</v>
+        <v>0.0001079312468748364</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>20.11649439912656</v>
+        <v>7.300212431018849</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001079312468748364</v>
+        <v>1.199617289465587</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.300212431018849</v>
+        <v>0.005751990898823832</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.199617289465587</v>
+        <v>3.108400888762425</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.005751990898823832</v>
+        <v>0.9570772551686862</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.108400888762425</v>
+        <v>1.745930968109215</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9570772551686862</v>
+        <v>36</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.745930968109215</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2583342748769191</v>
       </c>
     </row>
@@ -7409,72 +7235,66 @@
         <v>4.560555085507811e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1414701666194884</v>
+        <v>1.506721244623214e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.58316407709327</v>
+        <v>3.208918520360813e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.506721244623214e-07</v>
+        <v>0.03688192075945974</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.208918520360813e-06</v>
+        <v>0.1497237791050252</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.03688192075945974</v>
+        <v>0.02375989566905238</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1497237791050252</v>
+        <v>1.730589908846674</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02375989566905238</v>
+        <v>1.624198926565574</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.639964125428383</v>
+        <v>4.085372720791273</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.624198926565574</v>
+        <v>1.99482123861731e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.085372720791273</v>
+        <v>101766703.9966839</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.99482123861731e-15</v>
+        <v>1.131723577247511e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>101766703.9966839</v>
+        <v>20.65929043901116</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.131723577247511e-06</v>
+        <v>0.0001048703815427767</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>20.65929043901116</v>
+        <v>6.518458590412813</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001048703815427767</v>
+        <v>1.359283717380898</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>6.518458590412813</v>
+        <v>0.004455974224023913</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.359283717380898</v>
+        <v>3.272860433210938</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004455974224023913</v>
+        <v>0.9570572905155709</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.272860433210938</v>
+        <v>1.763585846027868</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9570572905155709</v>
+        <v>36</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.763585846027868</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.25455371332628</v>
       </c>
     </row>
@@ -7489,72 +7309,66 @@
         <v>4.693571589137986e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1309153700423895</v>
+        <v>1.66975504386305e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.530015171706203</v>
+        <v>3.210879147133476e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.66975504386305e-07</v>
+        <v>0.04751057249123075</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.210879147133476e-06</v>
+        <v>0.1418291619326804</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04751057249123075</v>
+        <v>0.02235919602941503</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1418291619326804</v>
+        <v>1.730818821910535</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02235919602941503</v>
+        <v>1.773937893604159</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.641574919246329</v>
+        <v>4.220465202018625</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.773937893604159</v>
+        <v>1.869160975033094e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.220465202018625</v>
+        <v>109558162.8544826</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.869160975033094e-15</v>
+        <v>1.051714905667596e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>109558162.8544826</v>
+        <v>22.43552245068539</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.051714905667596e-06</v>
+        <v>0.0001062757720490629</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>22.43552245068539</v>
+        <v>6.440524768830113</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001062757720490629</v>
+        <v>1.476931453013428</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.440524768830113</v>
+        <v>0.004408357209258354</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.476931453013428</v>
+        <v>3.307618586749327</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.004408357209258354</v>
+        <v>0.9579937868773405</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.307618586749327</v>
+        <v>1.746993575428687</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9579937868773405</v>
+        <v>37</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.746993575428687</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2518698035265032</v>
       </c>
     </row>
@@ -7569,72 +7383,66 @@
         <v>4.849733389153275e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1496716033675095</v>
+        <v>1.82566053590322e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.390173525098145</v>
+        <v>3.213347024643348e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.82566053590322e-07</v>
+        <v>0.05547670290692592</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.213347024643348e-06</v>
+        <v>0.1362430599572683</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05547670290692592</v>
+        <v>0.02163154375508101</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1362430599572683</v>
+        <v>1.727860520099944</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02163154375508101</v>
+        <v>1.815376190668611</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.642104826957096</v>
+        <v>4.198997967622617</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.815376190668611</v>
+        <v>1.888321873784041e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.198997967622617</v>
+        <v>109041962.1904092</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.888321873784041e-15</v>
+        <v>1.0513849390873e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>109041962.1904092</v>
+        <v>22.45242941803403</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.0513849390873e-06</v>
+        <v>0.0001182862164910543</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>22.45242941803403</v>
+        <v>7.640017500620628</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001182862164910543</v>
+        <v>1.419670256939827</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.640017500620628</v>
+        <v>0.006904350772988494</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.419670256939827</v>
+        <v>3.218774937111157</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.006904350772988494</v>
+        <v>0.9582127721354285</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.218774937111157</v>
+        <v>1.734679314034038</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9582127721354285</v>
+        <v>34</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.734679314034038</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2362789802980305</v>
       </c>
     </row>
@@ -7649,72 +7457,66 @@
         <v>5.016151032343696e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.1932818652680503</v>
+        <v>1.912369380195871e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.205007958511928</v>
+        <v>3.216209106310487e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.912369380195871e-07</v>
+        <v>0.05964605992222483</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.216209106310487e-06</v>
+        <v>0.1290512741155023</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05964605992222483</v>
+        <v>0.02021041768305018</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1290512741155023</v>
+        <v>1.705475719315626</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02021041768305018</v>
+        <v>1.708290442060142</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.611829133152708</v>
+        <v>4.04052787127627</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.708290442060142</v>
+        <v>2.894211598679799e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.04052787127627</v>
+        <v>71851286.83923544</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.894211598679799e-15</v>
+        <v>1.587282723592436e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>71851286.83923544</v>
+        <v>14.94167827570863</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.587282723592436e-06</v>
+        <v>0.000148591500652835</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>14.94167827570863</v>
+        <v>9.216082304378682</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000148591500652835</v>
+        <v>1.298596838028217</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.216082304378682</v>
+        <v>0.01262079341188322</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.298596838028217</v>
+        <v>3.01308433108949</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01262079341188322</v>
+        <v>0.957637734873778</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.01308433108949</v>
+        <v>1.789709877342831</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.957637734873778</v>
+        <v>31</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.789709877342831</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2132134914285841</v>
       </c>
     </row>
@@ -7729,72 +7531,66 @@
         <v>5.152687944700836e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2259794294575903</v>
+        <v>1.91455796582513e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.086979403940363</v>
+        <v>3.219252196291864e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.91455796582513e-07</v>
+        <v>0.05933994958940038</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.219252196291864e-06</v>
+        <v>0.1242100036958389</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.05933994958940038</v>
+        <v>0.0189475929255733</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1242100036958389</v>
+        <v>1.698493941048954</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.0189475929255733</v>
+        <v>1.573909489635721</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.606148197710286</v>
+        <v>3.730777613549089</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.573909489635721</v>
+        <v>3.394749781873618e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.730777613549089</v>
+        <v>60204698.31567916</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.394749781873618e-15</v>
+        <v>1.883857788400308e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>60204698.31567916</v>
+        <v>12.30462940701524</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.883857788400308e-06</v>
+        <v>0.0001632662309757489</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>12.30462940701524</v>
+        <v>10.44300852167591</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001632662309757489</v>
+        <v>1.160029315481105</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.44300852167591</v>
+        <v>0.01780523179732629</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.160029315481105</v>
+        <v>2.850892691972593</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01780523179732629</v>
+        <v>0.9552907471048135</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.850892691972593</v>
+        <v>1.749373895234525</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9552907471048135</v>
+        <v>31</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.749373895234525</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2033338456179982</v>
       </c>
     </row>
@@ -7809,72 +7605,66 @@
         <v>5.231694613176197e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2309601690635423</v>
+        <v>1.91455796582513e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.066600541903474</v>
+        <v>3.222278564962912e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.91455796582513e-07</v>
+        <v>0.05695536911012359</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.222278564962912e-06</v>
+        <v>0.1244970332615207</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.05695536911012359</v>
+        <v>0.01874202553040229</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1244970332615207</v>
+        <v>1.692592114017346</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01874202553040229</v>
+        <v>1.756334246927185</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.602527688739441</v>
+        <v>3.754285257206066</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.756334246927185</v>
+        <v>3.155536964326845e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.754285257206066</v>
+        <v>61628039.84712209</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.155536964326845e-15</v>
+        <v>1.824003235239154e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>61628039.84712209</v>
+        <v>11.98477765570861</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.824003235239154e-06</v>
+        <v>0.0001516417242716853</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>11.98477765570861</v>
+        <v>10.59743758611258</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001516417242716853</v>
+        <v>1.126321829517032</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.59743758611258</v>
+        <v>0.01703022747500484</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.126321829517032</v>
+        <v>2.927025361953246</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01703022747500484</v>
+        <v>0.9558106325055086</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.927025361953246</v>
+        <v>1.759733640193275</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9558106325055086</v>
+        <v>31</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.759733640193275</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2047123997017094</v>
       </c>
     </row>
@@ -7889,72 +7679,66 @@
         <v>5.263186945554278e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2177997836471686</v>
+        <v>1.90671005442719e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.09503339783691</v>
+        <v>3.225206127673636e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.90671005442719e-07</v>
+        <v>0.05466807115212419</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.225206127673636e-06</v>
+        <v>0.1254625759382109</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.05466807115212419</v>
+        <v>0.01872950412857198</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1254625759382109</v>
+        <v>1.708973050925233</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01872950412857198</v>
+        <v>1.628827330764526</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.617003527500743</v>
+        <v>3.810291037310807</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.628827330764526</v>
+        <v>3.063455030399996e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.810291037310807</v>
+        <v>62296614.53062426</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.063455030399996e-15</v>
+        <v>1.818248546952779e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>62296614.53062426</v>
+        <v>11.8888651543973</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.818248546952779e-06</v>
+        <v>0.0001379506011387685</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>11.8888651543973</v>
+        <v>9.760337880250649</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001379506011387685</v>
+        <v>1.190025378949385</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.760337880250649</v>
+        <v>0.01314175304128284</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.190025378949385</v>
+        <v>3.039027421580603</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01314175304128284</v>
+        <v>0.9542818310636</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.039027421580603</v>
+        <v>1.766394551068833</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9542818310636</v>
+        <v>31</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.766394551068833</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2096541343072948</v>
       </c>
     </row>
@@ -7969,72 +7753,66 @@
         <v>5.274324654440187e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.1954796537199674</v>
+        <v>1.873673092066383e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.133459189298744</v>
+        <v>3.228040416951387e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.873673092066383e-07</v>
+        <v>0.05284086919343015</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.228040416951387e-06</v>
+        <v>0.1257765284932429</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.05284086919343015</v>
+        <v>0.01861173189371195</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1257765284932429</v>
+        <v>1.682131105726197</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01861173189371195</v>
+        <v>1.758218283380157</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.592715846865242</v>
+        <v>3.998713285303578</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.758218283380157</v>
+        <v>2.781552598457193e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.998713285303578</v>
+        <v>68383126.25052184</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.781552598457193e-15</v>
+        <v>1.641834622973809e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>68383126.25052184</v>
+        <v>13.00724077868158</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.641834622973809e-06</v>
+        <v>0.000137011587553289</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>13.00724077868158</v>
+        <v>8.476416601267774</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000137011587553289</v>
+        <v>1.307655417467481</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.476416601267774</v>
+        <v>0.009844233022073701</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.307655417467481</v>
+        <v>3.091306660370239</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.009844233022073701</v>
+        <v>0.9518406852674538</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.091306660370239</v>
+        <v>1.75763931303322</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9518406852674538</v>
+        <v>32</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.75763931303322</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2000844986131121</v>
       </c>
     </row>
@@ -8049,72 +7827,66 @@
         <v>5.274370280707019e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1644190946841564</v>
+        <v>1.823266370057326e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.170670160131585</v>
+        <v>3.230762262297933e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.823266370057326e-07</v>
+        <v>0.0502103124453323</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.230762262297933e-06</v>
+        <v>0.1264976961000342</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.0502103124453323</v>
+        <v>0.01852199946075951</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1264976961000342</v>
+        <v>1.675924137792315</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01852199946075951</v>
+        <v>1.685630376796343</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.590524440312581</v>
+        <v>4.030609766310548</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.685630376796343</v>
+        <v>2.737702812817507e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.030609766310548</v>
+        <v>68981861.10344331</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.737702812817507e-15</v>
+        <v>1.622071246367299e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>68981861.10344331</v>
+        <v>13.02735106326075</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.622071246367299e-06</v>
+        <v>0.000139373865643798</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>13.02735106326075</v>
+        <v>7.788428461694549</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.000139373865643798</v>
+        <v>1.397874119161431</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.788428461694549</v>
+        <v>0.008454365435607606</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.397874119161431</v>
+        <v>3.044961826616377</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008454365435607606</v>
+        <v>0.9505506303205776</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.044961826616377</v>
+        <v>1.764321093908602</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9505506303205776</v>
+        <v>35</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.764321093908602</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1944634124073903</v>
       </c>
     </row>
@@ -8129,72 +7901,66 @@
         <v>5.267949340424472e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.123629587654897</v>
+        <v>1.767702260599563e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.200638603237587</v>
+        <v>3.233339424666399e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.767702260599563e-07</v>
+        <v>0.0476832761860419</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>3.233339424666399e-06</v>
+        <v>0.1269293655571589</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.0476832761860419</v>
+        <v>0.01838410903586424</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1269293655571589</v>
+        <v>1.674818610105833</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.01838410903586424</v>
+        <v>1.634753710893842</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.591346126576752</v>
+        <v>4.010299985345911</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.634753710893842</v>
+        <v>2.765502698387841e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.010299985345911</v>
+        <v>68605232.2380905</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.765502698387841e-15</v>
+        <v>1.632835398402583e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>68605232.2380905</v>
+        <v>13.01633040646066</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.632835398402583e-06</v>
+        <v>0.0001403035564501074</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>13.01633040646066</v>
+        <v>8.24044335808528</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001403035564501074</v>
+        <v>1.261991526205378</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>8.24044335808528</v>
+        <v>0.009527299915727859</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.261991526205378</v>
+        <v>2.931386711840123</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.009527299915727859</v>
+        <v>0.9498337504404821</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.931386711840123</v>
+        <v>1.791362556173666</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9498337504404821</v>
+        <v>22</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.791362556173666</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.193073435241415</v>
       </c>
     </row>
@@ -8209,72 +7975,66 @@
         <v>5.262961408539312e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.07525731852093016</v>
+        <v>1.767702260599563e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.220016407395975</v>
+        <v>3.235791050007724e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.767702260599563e-07</v>
+        <v>0.04533742958049645</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>3.235791050007724e-06</v>
+        <v>0.1265605079613891</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.04533742958049645</v>
+        <v>0.01807124012607692</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1265605079613891</v>
+        <v>1.681585737583289</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.01807124012607692</v>
+        <v>1.560592090560188</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.59710420338687</v>
+        <v>4.07630163715624</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.560592090560188</v>
+        <v>2.676672156143291e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.07630163715624</v>
+        <v>72756175.6092498</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.676672156143291e-15</v>
+        <v>1.553217511323746e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>72756175.6092498</v>
+        <v>14.1688599073144</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.553217511323746e-06</v>
+        <v>0.0001386902254857741</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>14.1688599073144</v>
+        <v>9.460852705840262</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001386902254857741</v>
+        <v>1.146230675580172</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.460852705840262</v>
+        <v>0.01241384780030807</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.146230675580172</v>
+        <v>2.834887745321409</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01241384780030807</v>
+        <v>0.9507377212489535</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.834887745321409</v>
+        <v>1.749518313645035</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9507377212489535</v>
+        <v>25</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.749518313645035</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2001853039277211</v>
       </c>
     </row>
@@ -8289,72 +8049,66 @@
         <v>5.267372636571827e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.01928033382489846</v>
+        <v>1.767702260599563e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.228815100468344</v>
+        <v>3.238088792575658e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.767702260599563e-07</v>
+        <v>0.04191256447817823</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>3.238088792575658e-06</v>
+        <v>0.1252293581242488</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.04191256447817823</v>
+        <v>0.01743737425107813</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1252293581242488</v>
+        <v>1.691106994654892</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01743737425107813</v>
+        <v>1.629547605509341</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.609559747582065</v>
+        <v>4.21572658131443</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.629547605509341</v>
+        <v>2.462492916978484e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.21572658131443</v>
+        <v>79272316.29720111</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.462492916978484e-15</v>
+        <v>1.429475248043504e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>79272316.29720111</v>
+        <v>15.47455206247518</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.429475248043504e-06</v>
+        <v>0.0001294384664322336</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>15.47455206247518</v>
+        <v>9.296745155828676</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001294384664322336</v>
+        <v>1.167039276912224</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.296745155828676</v>
+        <v>0.01118729811508934</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.167039276912224</v>
+        <v>3.035990775587511</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01118729811508934</v>
+        <v>0.9502513234630068</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.035990775587511</v>
+        <v>1.746418282061208</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9502513234630068</v>
+        <v>30</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.746418282061208</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2014033662567466</v>
       </c>
     </row>
@@ -8369,72 +8123,66 @@
         <v>5.277592818364789e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.04196899546463585</v>
+        <v>1.767702260599563e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.229299437410408</v>
+        <v>3.240226200291357e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.767702260599563e-07</v>
+        <v>0.0393798851130556</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>3.240226200291357e-06</v>
+        <v>0.1249438561305335</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.0393798851130556</v>
+        <v>0.01716155610286068</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1249438561305335</v>
+        <v>1.690433943956538</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.01716155610286068</v>
+        <v>1.665324456000109</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.606036675259799</v>
+        <v>4.179066688853629</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.665324456000109</v>
+        <v>2.505885707431456e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.179066688853629</v>
+        <v>78050001.89171694</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.505885707431456e-15</v>
+        <v>1.452873068353096e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>78050001.89171694</v>
+        <v>15.26536155722579</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.452873068353096e-06</v>
+        <v>0.0001284020669996444</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>15.26536155722579</v>
+        <v>7.796081557394806</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001284020669996444</v>
+        <v>1.382836756683347</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>7.796081557394806</v>
+        <v>0.007804134804141559</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.382836756683347</v>
+        <v>3.203612103189208</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.007804134804141559</v>
+        <v>0.9513401863507078</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.203612103189208</v>
+        <v>1.765685467730904</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9513401863507078</v>
+        <v>15</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.765685467730904</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.1947481408679416</v>
       </c>
     </row>
@@ -8449,72 +8197,66 @@
         <v>5.275782975841782e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1058178132250211</v>
+        <v>1.767702260599563e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.217191826066819</v>
+        <v>3.242273785586632e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.767702260599563e-07</v>
+        <v>0.03848612928428541</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>3.242273785586632e-06</v>
+        <v>0.1256984475535446</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.03848612928428541</v>
+        <v>0.01727937546949982</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1256984475535446</v>
+        <v>1.688509853519167</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.01727937546949982</v>
+        <v>1.6266940613283</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.603206898010437</v>
+        <v>4.182627071378424</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.6266940613283</v>
+        <v>2.501621347150211e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.182627071378424</v>
+        <v>78340858.9825909</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.501621347150211e-15</v>
+        <v>1.443352325955782e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>78340858.9825909</v>
+        <v>15.35317614327878</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.443352325955782e-06</v>
+        <v>0.0001295684810191194</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>15.35317614327878</v>
+        <v>7.450376998513409</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001295684810191194</v>
+        <v>1.380432759236876</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.450376998513409</v>
+        <v>0.007192102458337428</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.380432759236876</v>
+        <v>3.139378809843833</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.007192102458337428</v>
+        <v>0.9504518899898446</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.139378809843833</v>
+        <v>1.740985845723913</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9504518899898446</v>
+        <v>15</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.740985845723913</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2000008389818698</v>
       </c>
     </row>
@@ -8529,72 +8271,66 @@
         <v>5.242243516722809e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1689559999185173</v>
+        <v>1.767702260599563e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.185447035898658</v>
+        <v>3.24431549297938e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.767702260599563e-07</v>
+        <v>0.03931746619343483</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>3.24431549297938e-06</v>
+        <v>0.1256956928129465</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.03931746619343483</v>
+        <v>0.01734325888678176</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1256956928129465</v>
+        <v>1.68309764497582</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01734325888678176</v>
+        <v>1.591575968744289</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.588160716959383</v>
+        <v>4.249680563985405</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.591575968744289</v>
+        <v>2.423300595409875e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.249680563985405</v>
+        <v>79598878.56539926</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>2.423300595409875e-15</v>
+        <v>1.421160114696588e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>79598878.56539926</v>
+        <v>15.35398766601661</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.421160114696588e-06</v>
+        <v>0.0001327961600332688</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>15.35398766601661</v>
+        <v>8.102198962672784</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001327961600332688</v>
+        <v>1.308960555335894</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>8.102198962672784</v>
+        <v>0.008717487325454045</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.308960555335894</v>
+        <v>2.984715967521897</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.008717487325454045</v>
+        <v>0.9500932518230594</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.984715967521897</v>
+        <v>1.768707753611794</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9500932518230594</v>
+        <v>18</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.768707753611794</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2118000457615786</v>
       </c>
     </row>
@@ -8971,7 +8707,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.24563102535805</v>
+        <v>1.22909080024423</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.336984902777914</v>
@@ -9060,7 +8796,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.243144617903063</v>
+        <v>1.227423393799981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.435954535145069</v>
@@ -9149,7 +8885,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.254347085888506</v>
+        <v>1.240364385280869</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.555550479688287</v>
@@ -9238,7 +8974,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.264431264050625</v>
+        <v>1.25117326972305</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.513062873581774</v>
@@ -9327,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.278563691153586</v>
+        <v>1.269053090228289</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.407934087723931</v>
@@ -9416,7 +9152,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.297244048128596</v>
+        <v>1.292090372582213</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.490541469060811</v>
@@ -9505,7 +9241,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.318568522583862</v>
+        <v>1.315936488862898</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.606682360431984</v>
@@ -9594,7 +9330,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.316789366578736</v>
+        <v>1.314335511503027</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.497568910329453</v>
@@ -9683,7 +9419,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.322632969438411</v>
+        <v>1.321423241913294</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.284222371415197</v>
@@ -9772,7 +9508,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.310456545211119</v>
+        <v>1.31267391075762</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.455597032629187</v>
@@ -9861,7 +9597,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.324659072411673</v>
+        <v>1.324674380382059</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.194522956671141</v>
@@ -9950,7 +9686,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.307711981503807</v>
+        <v>1.308125098199318</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.264772756932928</v>
@@ -10039,7 +9775,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.319185019035439</v>
+        <v>1.320477364737445</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.370335163341398</v>
@@ -10128,7 +9864,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.306577921073195</v>
+        <v>1.305931602600193</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.282221702661406</v>
@@ -10217,7 +9953,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.31015707370676</v>
+        <v>1.307127633513727</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.307763961088333</v>
@@ -10306,7 +10042,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.321318086886398</v>
+        <v>1.315218518537644</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.132299523178661</v>
@@ -10395,7 +10131,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.318654305386362</v>
+        <v>1.314747500460072</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.213982947500994</v>
@@ -10484,7 +10220,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.32112156092375</v>
+        <v>1.317992741433222</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.286358903069678</v>
@@ -10573,7 +10309,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.309981781013341</v>
+        <v>1.303985865352596</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.271200174274416</v>
@@ -10662,7 +10398,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.291898453063657</v>
+        <v>1.283812219143273</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.293702840078316</v>
@@ -10751,7 +10487,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.287495689918861</v>
+        <v>1.27707194797514</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.334991972144077</v>
@@ -10840,7 +10576,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.289888505010461</v>
+        <v>1.278152506906605</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.217372087577866</v>
@@ -10929,7 +10665,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.278437698537216</v>
+        <v>1.263170107361457</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.342536072591808</v>
@@ -11018,7 +10754,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.272635458418726</v>
+        <v>1.25668699631033</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.194680821260624</v>
@@ -11107,7 +10843,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.280550192802606</v>
+        <v>1.260468781561737</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.186789317881016</v>
@@ -11196,7 +10932,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.267342534533096</v>
+        <v>1.244095393275042</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.143282908245469</v>
@@ -11285,7 +11021,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.271532769100119</v>
+        <v>1.245550665656556</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.246187179760015</v>
@@ -11374,7 +11110,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.277396791244973</v>
+        <v>1.257822176749356</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.270875398464567</v>
@@ -11463,7 +11199,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.274218267678529</v>
+        <v>1.253784734167493</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.290739521353803</v>
@@ -11552,7 +11288,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.263812754733709</v>
+        <v>1.240867982994158</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.188930133865902</v>
@@ -11641,7 +11377,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.26087494574444</v>
+        <v>1.239127522674622</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.149531651320409</v>
@@ -11730,7 +11466,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.257471808732304</v>
+        <v>1.236729358450728</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.237647839195903</v>
@@ -11819,7 +11555,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.252968043686637</v>
+        <v>1.228967285163278</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.200606929525681</v>
@@ -11908,7 +11644,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.260306117591193</v>
+        <v>1.2394003611173</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.259178714077682</v>
@@ -11997,7 +11733,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.260985279579807</v>
+        <v>1.236695211748476</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.294265100700088</v>
@@ -12086,7 +11822,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.260101783050447</v>
+        <v>1.23820569933714</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.287349697580661</v>
@@ -12175,7 +11911,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.254862381181912</v>
+        <v>1.232264611072364</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.254315839853843</v>
@@ -12264,7 +12000,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.272793807854371</v>
+        <v>1.251806208373667</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.454067570434047</v>
@@ -12353,7 +12089,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.275844047654807</v>
+        <v>1.252784114862865</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.497691483401272</v>
@@ -12442,7 +12178,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.272947954915087</v>
+        <v>1.254458389447925</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.199706527993821</v>
@@ -12531,7 +12267,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.288384739057802</v>
+        <v>1.274691171445457</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.314600249021963</v>
@@ -12620,7 +12356,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.298448952019223</v>
+        <v>1.28624659942987</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.161896364948565</v>
@@ -12709,7 +12445,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.28975642897319</v>
+        <v>1.276535494949791</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.335541270693254</v>
@@ -12798,7 +12534,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.31472379128558</v>
+        <v>1.29619560340406</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.580560326941841</v>
@@ -12887,7 +12623,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.303493569483718</v>
+        <v>1.294852542508001</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.323553060567382</v>
@@ -12976,7 +12712,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.317646539649676</v>
+        <v>1.300069918591277</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.24925530201824</v>
@@ -13065,7 +12801,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.301153498353034</v>
+        <v>1.288933416973439</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.188549103115791</v>
@@ -13154,7 +12890,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.313092993043584</v>
+        <v>1.298963055417851</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.138452314499403</v>
@@ -13243,7 +12979,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.30494059662985</v>
+        <v>1.290180664306344</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.259276543536445</v>
@@ -13332,7 +13068,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.305468618479683</v>
+        <v>1.295677702403633</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.373094027271865</v>
@@ -13421,7 +13157,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.303267551835351</v>
+        <v>1.286934737814231</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.157227182841811</v>
@@ -13510,7 +13246,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.304474526664086</v>
+        <v>1.287228459775515</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.312528828919364</v>
@@ -13599,7 +13335,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.290003543780857</v>
+        <v>1.275870656718021</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.224207337524497</v>
@@ -13688,7 +13424,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.30202066128389</v>
+        <v>1.290696947082158</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.189203745961703</v>
@@ -13777,7 +13513,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.306845598313112</v>
+        <v>1.295660239693559</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.262323264680854</v>
@@ -13866,7 +13602,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.298321533997231</v>
+        <v>1.285390632175059</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.135273513918286</v>
@@ -13955,7 +13691,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.294638471038116</v>
+        <v>1.281967709359145</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.279412219605591</v>
@@ -14044,7 +13780,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.304873367516094</v>
+        <v>1.292137051337716</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.383727014470278</v>
@@ -14133,7 +13869,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.325266517370733</v>
+        <v>1.309573418647134</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.459529970056331</v>
@@ -14222,7 +13958,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.303753856806089</v>
+        <v>1.293449052245004</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.298337010826243</v>
@@ -14311,7 +14047,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.314297722058764</v>
+        <v>1.306671244643181</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.411576120585269</v>
@@ -14400,7 +14136,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.31930546170742</v>
+        <v>1.314342598604508</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.328304252092923</v>
@@ -14489,7 +14225,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.34260543670904</v>
+        <v>1.340867938440831</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.167796339854219</v>
@@ -14578,7 +14314,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.3488688107584</v>
+        <v>1.350527088088</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.193025453223894</v>
@@ -14667,7 +14403,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.333263666896551</v>
+        <v>1.331430924288042</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.338082134654552</v>
@@ -14756,7 +14492,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.331773938301817</v>
+        <v>1.332053837040266</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.359512365339042</v>
@@ -14845,7 +14581,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.341383278562207</v>
+        <v>1.343820706047975</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.19215580935326</v>
@@ -14934,7 +14670,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.349557250723378</v>
+        <v>1.352099218690537</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.324786068055098</v>
@@ -15023,7 +14759,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.361556318758841</v>
+        <v>1.35797597723871</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.174826761468794</v>
@@ -15112,7 +14848,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.360962588458692</v>
+        <v>1.364873031279938</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.20071272824518</v>
@@ -15201,7 +14937,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.376481377589662</v>
+        <v>1.375742281840355</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.137753800376518</v>
@@ -15290,7 +15026,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.389840760896925</v>
+        <v>1.393438374705403</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.260152229114408</v>
@@ -15379,7 +15115,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.397925615151496</v>
+        <v>1.397566443310966</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.190500617551125</v>
@@ -15468,7 +15204,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.396811150799094</v>
+        <v>1.393577413599954</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.399326494909209</v>
@@ -15557,7 +15293,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.410870220281748</v>
+        <v>1.413671541106459</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.213167392356309</v>
@@ -15646,7 +15382,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.432658939631414</v>
+        <v>1.433843408257972</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.541320409958527</v>
@@ -15735,7 +15471,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.419584796398728</v>
+        <v>1.420262744787334</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.317840602208095</v>
@@ -15824,7 +15560,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.417472744825099</v>
+        <v>1.416771810936351</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.336897046266131</v>
@@ -15913,7 +15649,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.4104841880351</v>
+        <v>1.408692434862677</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.23306358589153</v>
@@ -16002,7 +15738,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.421552706948428</v>
+        <v>1.420322058589899</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.546898688917364</v>
@@ -16091,7 +15827,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.436548937486376</v>
+        <v>1.435572858065287</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.367602073649707</v>
@@ -16180,7 +15916,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.420762800398903</v>
+        <v>1.419312693677068</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.240510928708004</v>
@@ -16269,7 +16005,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.409408323190145</v>
+        <v>1.412381554678733</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.299624099451794</v>
@@ -16358,7 +16094,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.388764030502946</v>
+        <v>1.388389066967044</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.525786312427419</v>
@@ -16447,7 +16183,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.370286660562883</v>
+        <v>1.367190664276623</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.383826312594018</v>
@@ -16536,7 +16272,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.361112605049408</v>
+        <v>1.358940928915327</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.33071918564168</v>
@@ -16625,7 +16361,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.33693542545854</v>
+        <v>1.333987603010664</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.278715682395417</v>
@@ -16911,7 +16647,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.766370487113947</v>
+        <v>1.786952433536078</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.488583861298281</v>
@@ -17000,7 +16736,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.771898852471032</v>
+        <v>1.791130356314601</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.97890330041231</v>
@@ -17089,7 +16825,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.787019574433088</v>
+        <v>1.806191549038096</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.453586279865723</v>
@@ -17178,7 +16914,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.78764567668089</v>
+        <v>1.805119369916433</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.605502007020917</v>
@@ -17267,7 +17003,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.794918831201587</v>
+        <v>1.811352553113256</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.297068545873896</v>
@@ -17356,7 +17092,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.805516096987788</v>
+        <v>1.822713517988257</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.895266214224035</v>
@@ -17445,7 +17181,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.81104339637462</v>
+        <v>1.822648843739781</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.08138554106638</v>
@@ -17534,7 +17270,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.78840450623115</v>
+        <v>1.802795245800436</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.897675228367718</v>
@@ -17623,7 +17359,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.786995314857249</v>
+        <v>1.801274278514194</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.737514053048931</v>
@@ -17712,7 +17448,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.735315893429409</v>
+        <v>1.758392138113969</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.648452892423574</v>
@@ -17801,7 +17537,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.720620854854445</v>
+        <v>1.743966932897296</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.605448749273608</v>
@@ -17890,7 +17626,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706591391594688</v>
+        <v>1.730108549891379</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.513323759522797</v>
@@ -17979,7 +17715,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.712553852872273</v>
+        <v>1.739253837643427</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.569983858697964</v>
@@ -18068,7 +17804,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.705947861405158</v>
+        <v>1.734599827739789</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.660372698810516</v>
@@ -18157,7 +17893,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.70633855671887</v>
+        <v>1.733630369970813</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.633062667679564</v>
@@ -18246,7 +17982,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.692537648199081</v>
+        <v>1.717103239974632</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.462134414958319</v>
@@ -18335,7 +18071,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.677449436468326</v>
+        <v>1.704550492145677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.546893715427528</v>
@@ -18424,7 +18160,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.65596180455513</v>
+        <v>1.681143509418237</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.637232194867595</v>
@@ -18513,7 +18249,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.653873916536197</v>
+        <v>1.677619923633886</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.721872430551986</v>
@@ -18602,7 +18338,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644336689411022</v>
+        <v>1.67018543696854</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.536290603670462</v>
@@ -18691,7 +18427,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.638817438311591</v>
+        <v>1.663004922316213</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.591599414754867</v>
@@ -18780,7 +18516,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629171756895224</v>
+        <v>1.655082071966187</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.566732918143782</v>
@@ -18869,7 +18605,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.630174634058791</v>
+        <v>1.653447568368709</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.542714781738821</v>
@@ -18958,7 +18694,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627620832238807</v>
+        <v>1.651131335690851</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.404337640970573</v>
@@ -19047,7 +18783,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.673261792262782</v>
+        <v>1.689411522325106</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.641313261496526</v>
@@ -19136,7 +18872,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.672045290686299</v>
+        <v>1.68956772949387</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.389866645429909</v>
@@ -19225,7 +18961,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677155385783896</v>
+        <v>1.697769165382571</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.317146699832916</v>
@@ -19314,7 +19050,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674682731561383</v>
+        <v>1.690711192779151</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.225213080377015</v>
@@ -19403,7 +19139,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678908672695732</v>
+        <v>1.692609236566702</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.253857906331971</v>
@@ -19492,7 +19228,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674630825775004</v>
+        <v>1.693811911797266</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.296793783883384</v>
@@ -19581,7 +19317,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691103449725547</v>
+        <v>1.71141954184552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.766039429136671</v>
@@ -19670,7 +19406,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.703744671415967</v>
+        <v>1.724102193833361</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.311617494814359</v>
@@ -19759,7 +19495,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720560541945267</v>
+        <v>1.736747686394252</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.767362670938363</v>
@@ -19848,7 +19584,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728686785433486</v>
+        <v>1.742207004832735</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.236586012729146</v>
@@ -19937,7 +19673,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.709883959037997</v>
+        <v>1.724586842071363</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.50966063149671</v>
@@ -20026,7 +19762,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710892154035624</v>
+        <v>1.725864378065578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.047723725299635</v>
@@ -20115,7 +19851,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.714500285158455</v>
+        <v>1.730136976761848</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.022081287468779</v>
@@ -20204,7 +19940,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.727530681177846</v>
+        <v>1.740025695518345</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.043258062843901</v>
@@ -20293,7 +20029,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729079468330444</v>
+        <v>1.743973769064882</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.529217064929385</v>
@@ -20382,7 +20118,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.725451051111732</v>
+        <v>1.740413859669603</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.770304448567333</v>
@@ -20471,7 +20207,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.735790141010621</v>
+        <v>1.753147423462825</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.110994441107549</v>
@@ -20560,7 +20296,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.741613372725389</v>
+        <v>1.754355132103268</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.461188959208994</v>
@@ -20649,7 +20385,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.741289605872409</v>
+        <v>1.758152345931699</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.297646921247309</v>
@@ -20738,7 +20474,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.74959970571933</v>
+        <v>1.760463275222809</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.337149887175615</v>
@@ -20827,7 +20563,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.746305034435782</v>
+        <v>1.760659499351976</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.554431465805059</v>
@@ -20916,7 +20652,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.73853216317321</v>
+        <v>1.741406985021972</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.789249746847291</v>
@@ -21005,7 +20741,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.708515312289986</v>
+        <v>1.72114884176588</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.083787904210945</v>
@@ -21094,7 +20830,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.712398440333958</v>
+        <v>1.727487648097682</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.228504398319126</v>
@@ -21183,7 +20919,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.707620906763823</v>
+        <v>1.72563956555822</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.905482905476555</v>
@@ -21272,7 +21008,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.722818852430232</v>
+        <v>1.739137416113707</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.053127211560859</v>
@@ -21361,7 +21097,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.729534867149437</v>
+        <v>1.746027437844434</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.33421364373848</v>
@@ -21450,7 +21186,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.72451569609929</v>
+        <v>1.742194365050116</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.344775430682664</v>
@@ -21539,7 +21275,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.712276353493688</v>
+        <v>1.735651232326836</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.412901984652139</v>
@@ -21628,7 +21364,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.717612141797417</v>
+        <v>1.741414467587604</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.368084749945547</v>
@@ -21717,7 +21453,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.714204578634743</v>
+        <v>1.737769656353872</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.41098486884193</v>
@@ -21806,7 +21542,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.703799049717877</v>
+        <v>1.728434771579607</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.257415839402445</v>
@@ -21895,7 +21631,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.700768791312877</v>
+        <v>1.727426701853877</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.346305940555646</v>
@@ -21984,7 +21720,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.699506963344049</v>
+        <v>1.72364456843935</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.262081079426829</v>
@@ -22073,7 +21809,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.707498526612996</v>
+        <v>1.730798185302094</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.375815118000598</v>
@@ -22162,7 +21898,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.694115468338954</v>
+        <v>1.720637066780297</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.285415631090749</v>
@@ -22251,7 +21987,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.711816996837953</v>
+        <v>1.744270173155057</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.267171699709603</v>
@@ -22340,7 +22076,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.727617358135721</v>
+        <v>1.758123680225102</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.813734047298522</v>
@@ -22429,7 +22165,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.733150672503323</v>
+        <v>1.760618945033841</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.173126139942601</v>
@@ -22518,7 +22254,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.728415686109305</v>
+        <v>1.758390816649844</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.219731080824231</v>
@@ -22607,7 +22343,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.7226784134097</v>
+        <v>1.751242998150325</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.45547793431176</v>
@@ -22696,7 +22432,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.716102410044364</v>
+        <v>1.746568803713562</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.45840406276476</v>
@@ -22785,7 +22521,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.711255806810844</v>
+        <v>1.743292291580094</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.180872614207629</v>
@@ -22874,7 +22610,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.728310198132417</v>
+        <v>1.758292326415206</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.07777692086629</v>
@@ -22963,7 +22699,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.721028787439271</v>
+        <v>1.749623967361519</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.270706850715585</v>
@@ -23052,7 +22788,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.716933278583603</v>
+        <v>1.748961650241166</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.290886607438843</v>
@@ -23141,7 +22877,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.724885787042319</v>
+        <v>1.74949076354743</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.203507988775981</v>
@@ -23230,7 +22966,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.723719007016455</v>
+        <v>1.748279290333919</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.390920551244608</v>
@@ -23319,7 +23055,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.724778226491283</v>
+        <v>1.750552206796569</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.338362410180809</v>
@@ -23408,7 +23144,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.717157346072482</v>
+        <v>1.742740993151777</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.408859688254784</v>
@@ -23497,7 +23233,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.710896565426932</v>
+        <v>1.735256503723622</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.271094839658232</v>
@@ -23586,7 +23322,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.704125937841314</v>
+        <v>1.728116036136477</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.145341532356813</v>
@@ -23675,7 +23411,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.695486294747364</v>
+        <v>1.714967710581088</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.33026705261242</v>
@@ -23764,7 +23500,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.680425502885163</v>
+        <v>1.699789960208439</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.286160261092693</v>
@@ -23853,7 +23589,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.674804988517869</v>
+        <v>1.691029037572799</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.41624332036426</v>
@@ -23942,7 +23678,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.672255173221619</v>
+        <v>1.68801474169932</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.105981983284437</v>
@@ -24031,7 +23767,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.679552612036169</v>
+        <v>1.693250869659447</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.05950952776366</v>
@@ -24120,7 +23856,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.686275242999805</v>
+        <v>1.700042289740372</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.382944269550297</v>
@@ -24209,7 +23945,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.676692457217843</v>
+        <v>1.691894498816767</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.333739736230066</v>
@@ -24298,7 +24034,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.680815849499705</v>
+        <v>1.691603849034681</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.203784487628881</v>
@@ -24387,7 +24123,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.680787229603194</v>
+        <v>1.691006152220945</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.3376588828907</v>
@@ -24476,7 +24212,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.682921896858419</v>
+        <v>1.693579602510151</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.057368257129228</v>
@@ -24565,7 +24301,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.654670878823163</v>
+        <v>1.671356298928144</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.187957612881855</v>
@@ -24851,7 +24587,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.655637751740939</v>
+        <v>1.638315979684189</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.909468330078024</v>
@@ -24940,7 +24676,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.650360079616894</v>
+        <v>1.637529106596678</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.517536318476035</v>
@@ -25029,7 +24765,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.659340988759017</v>
+        <v>1.646429811107015</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.673950555092306</v>
@@ -25118,7 +24854,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.654354789169483</v>
+        <v>1.643732391595142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.751853873540131</v>
@@ -25207,7 +24943,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651300783378048</v>
+        <v>1.644782856654948</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.998418008503483</v>
@@ -25296,7 +25032,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644297777752523</v>
+        <v>1.643649306195419</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.734238204428902</v>
@@ -25385,7 +25121,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.658613890872283</v>
+        <v>1.65587450603112</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.821218875670955</v>
@@ -25474,7 +25210,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662001287850679</v>
+        <v>1.656969625893293</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.961246285627426</v>
@@ -25563,7 +25299,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.657652726930827</v>
+        <v>1.651620368872392</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.969856590307414</v>
@@ -25652,7 +25388,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.573211418727786</v>
+        <v>1.58523535894032</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.186309997015317</v>
@@ -25741,7 +25477,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567088001721789</v>
+        <v>1.577135311761459</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.183753510668713</v>
@@ -25830,7 +25566,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.566447341221406</v>
+        <v>1.579394170002253</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.157792339755086</v>
@@ -25919,7 +25655,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.563143579699467</v>
+        <v>1.573583207556285</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.158174119757462</v>
@@ -26008,7 +25744,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.553120490980219</v>
+        <v>1.563688123761714</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.156851802744148</v>
@@ -26097,7 +25833,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.542688440106795</v>
+        <v>1.548702338581182</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.141473291922048</v>
@@ -26186,7 +25922,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542232604877915</v>
+        <v>1.549222424622918</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.17150947152876</v>
@@ -26275,7 +26011,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.546991920570951</v>
+        <v>1.54730291657951</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.139663389824956</v>
@@ -26364,7 +26100,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.547413073187417</v>
+        <v>1.549461688481444</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.107914903653115</v>
@@ -26453,7 +26189,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.548113068571729</v>
+        <v>1.548313148249116</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.171576455330547</v>
@@ -26542,7 +26278,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538100900720907</v>
+        <v>1.537549924554545</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.16382801261401</v>
@@ -26631,7 +26367,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.539365444862993</v>
+        <v>1.539695448575888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.150234783141157</v>
@@ -26720,7 +26456,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.530863801182961</v>
+        <v>1.526525451549525</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.145064041137493</v>
@@ -26809,7 +26545,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.524318184786271</v>
+        <v>1.521605798980969</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.119304453063411</v>
@@ -26898,7 +26634,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.524065175592176</v>
+        <v>1.517024594573269</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.983738325283881</v>
@@ -26987,7 +26723,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598652283966699</v>
+        <v>1.568656567836746</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.790324482684569</v>
@@ -27076,7 +26812,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.597848938239472</v>
+        <v>1.562972826424354</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.244524200155368</v>
@@ -27165,7 +26901,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59788136894729</v>
+        <v>1.562351452983754</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.097919293432623</v>
@@ -27254,7 +26990,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.596333799589946</v>
+        <v>1.558889327622845</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.133023428097151</v>
@@ -27343,7 +27079,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.596312051547064</v>
+        <v>1.562384811708275</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.574539439695111</v>
@@ -27432,7 +27168,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588703860437277</v>
+        <v>1.559027708531919</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.22511989852855</v>
@@ -27521,7 +27257,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581478689631769</v>
+        <v>1.554065595673482</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.544412277265177</v>
@@ -27610,7 +27346,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570379614042858</v>
+        <v>1.549280576518258</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.446389684388322</v>
@@ -27699,7 +27435,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.564697720445643</v>
+        <v>1.536266515311095</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.371380371986894</v>
@@ -27788,7 +27524,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.571332713163293</v>
+        <v>1.541576767506761</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.568708827060844</v>
@@ -27877,7 +27613,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.569334786173064</v>
+        <v>1.53821519781785</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.534098318770389</v>
@@ -27966,7 +27702,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564951455667814</v>
+        <v>1.530818799092273</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.085727846356688</v>
@@ -28055,7 +27791,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.571406867073568</v>
+        <v>1.534782282214975</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.22776036061927</v>
@@ -28144,7 +27880,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579953561096822</v>
+        <v>1.538076113056142</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.659424463414292</v>
@@ -28233,7 +27969,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.591566586625456</v>
+        <v>1.547024042696571</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.611992960102167</v>
@@ -28322,7 +28058,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.596917083875227</v>
+        <v>1.561239832117082</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.059893292090117</v>
@@ -28411,7 +28147,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.605493347874955</v>
+        <v>1.574704379076176</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.38877840026964</v>
@@ -28500,7 +28236,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.608220254925596</v>
+        <v>1.575912192289059</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.209168643407728</v>
@@ -28589,7 +28325,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.618010186038009</v>
+        <v>1.590378310101221</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.266994611153658</v>
@@ -28678,7 +28414,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.624767988804311</v>
+        <v>1.584436236620554</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.29307584718027</v>
@@ -28767,7 +28503,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.630849317118183</v>
+        <v>1.591873563342111</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.280830859721363</v>
@@ -28856,7 +28592,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.638597648024176</v>
+        <v>1.591220012136501</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.310800555220235</v>
@@ -28945,7 +28681,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.639534231676344</v>
+        <v>1.593001474535688</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.711104312962746</v>
@@ -29034,7 +28770,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.631042355753307</v>
+        <v>1.588170243928842</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.617353733482919</v>
@@ -29123,7 +28859,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62516720366816</v>
+        <v>1.582872421962382</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.400191874234651</v>
@@ -29212,7 +28948,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.636046624001266</v>
+        <v>1.596026452460116</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.49081360827832</v>
@@ -29301,7 +29037,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.646158343758927</v>
+        <v>1.604063409982251</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.545703687409121</v>
@@ -29390,7 +29126,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.645117160306855</v>
+        <v>1.608756282898734</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.650038742258527</v>
@@ -29479,7 +29215,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636314846916215</v>
+        <v>1.607889588815914</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.804516870609518</v>
@@ -29568,7 +29304,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.634787035650719</v>
+        <v>1.609687618261103</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.935746032643066</v>
@@ -29657,7 +29393,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.630921210642807</v>
+        <v>1.602842194067879</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.498988234565715</v>
@@ -29746,7 +29482,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.620048371547204</v>
+        <v>1.593386326268359</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.607091953630412</v>
@@ -29835,7 +29571,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.614828132833099</v>
+        <v>1.590252918404849</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.851542847403039</v>
@@ -29924,7 +29660,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.610937495286499</v>
+        <v>1.585669071258121</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.77082171279249</v>
@@ -30013,7 +29749,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.625762600949224</v>
+        <v>1.602417661338305</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.369704386574336</v>
@@ -30102,7 +29838,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.62460469577049</v>
+        <v>1.603987072646651</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.526020669372921</v>
@@ -30191,7 +29927,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.625732096409197</v>
+        <v>1.603887474933385</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.244690481802037</v>
@@ -30280,7 +30016,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.62952499593467</v>
+        <v>1.607511581868438</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.432508940112048</v>
@@ -30369,7 +30105,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.648632996250641</v>
+        <v>1.627919775794453</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.403014308249576</v>
@@ -30458,7 +30194,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.654043501211789</v>
+        <v>1.627495266364043</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.717497053903444</v>
@@ -30547,7 +30283,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.647345231479619</v>
+        <v>1.617906942449581</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.379810871351907</v>
@@ -30636,7 +30372,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.650688773833764</v>
+        <v>1.619573992973481</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.659892757767243</v>
@@ -30725,7 +30461,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.646424926433556</v>
+        <v>1.615887474014834</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.708869050183667</v>
@@ -30814,7 +30550,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.653940269507344</v>
+        <v>1.621628516393762</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.810159532927275</v>
@@ -30903,7 +30639,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.650395306858225</v>
+        <v>1.618022724559024</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.440185777326203</v>
@@ -30992,7 +30728,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.656848672724382</v>
+        <v>1.626855528593903</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.545922742031629</v>
@@ -31081,7 +30817,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.656770874806992</v>
+        <v>1.62216964011139</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.279947934979216</v>
@@ -31170,7 +30906,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.66230279947318</v>
+        <v>1.625473550643581</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.341473285936755</v>
@@ -31259,7 +30995,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.654266297330328</v>
+        <v>1.619254033863742</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.681477998294804</v>
@@ -31348,7 +31084,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.643879229633596</v>
+        <v>1.616228041253376</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.469151766212929</v>
@@ -31437,7 +31173,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.643080113060917</v>
+        <v>1.613027645987663</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.727519004320181</v>
@@ -31526,7 +31262,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.647004838922928</v>
+        <v>1.619926180919089</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.504316473597263</v>
@@ -31615,7 +31351,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.637170613776386</v>
+        <v>1.603463334231653</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.573147154881456</v>
@@ -31704,7 +31440,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.632871469734649</v>
+        <v>1.597671917331759</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.806073073472875</v>
@@ -31793,7 +31529,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.624267749330195</v>
+        <v>1.597111501528952</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.317030281251689</v>
@@ -31882,7 +31618,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.631518041281057</v>
+        <v>1.608485434912254</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.461219848704666</v>
@@ -31971,7 +31707,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.612775747023044</v>
+        <v>1.596564846812366</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.876756943382027</v>
@@ -32060,7 +31796,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.620007592185634</v>
+        <v>1.599407952441835</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.934733542338245</v>
@@ -32149,7 +31885,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.615434244723072</v>
+        <v>1.597017846629091</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.849677667376118</v>
@@ -32238,7 +31974,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.617528937544644</v>
+        <v>1.596270118994085</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.1270892836857</v>
@@ -32327,7 +32063,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.612595431887346</v>
+        <v>1.589393577374677</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.316538158138971</v>
@@ -32416,7 +32152,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.609844830198152</v>
+        <v>1.590619664732813</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.09443967325329</v>
@@ -32505,7 +32241,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.594137942851741</v>
+        <v>1.573692318375453</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.852758894487553</v>
@@ -32791,7 +32527,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633745245232729</v>
+        <v>1.636419723344503</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.990375828237112</v>
@@ -32880,7 +32616,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.638370049751171</v>
+        <v>1.64012279381423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.374634546208539</v>
@@ -32969,7 +32705,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.643936640677883</v>
+        <v>1.642970268714397</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.603138190724101</v>
@@ -33058,7 +32794,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.643383860455017</v>
+        <v>1.643339211397069</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.58812611183395</v>
@@ -33147,7 +32883,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639912098572061</v>
+        <v>1.641121602205761</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.745781559411185</v>
@@ -33236,7 +32972,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.639907619845306</v>
+        <v>1.639854217906744</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.938713772928693</v>
@@ -33325,7 +33061,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.647082501512648</v>
+        <v>1.643004908817352</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.48777855203971</v>
@@ -33414,7 +33150,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654008222910878</v>
+        <v>1.64655777817361</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.786812144393991</v>
@@ -33503,7 +33239,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.65290583302481</v>
+        <v>1.640505934796204</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.474514861679654</v>
@@ -33592,7 +33328,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605686721963668</v>
+        <v>1.614612121379196</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.292707720331746</v>
@@ -33681,7 +33417,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.610011204109528</v>
+        <v>1.616526620960878</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.28717081123171</v>
@@ -33770,7 +33506,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606443387550194</v>
+        <v>1.607465160874788</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.282257707534848</v>
@@ -33859,7 +33595,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613384782731789</v>
+        <v>1.611327661685483</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.364558699487076</v>
@@ -33948,7 +33684,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612223095630674</v>
+        <v>1.607149227467187</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.216797765844503</v>
@@ -34037,7 +33773,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609286698195874</v>
+        <v>1.604705308906412</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.25732876864404</v>
@@ -34126,7 +33862,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611598879596485</v>
+        <v>1.605235141614298</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.281945587903496</v>
@@ -34215,7 +33951,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609746107241433</v>
+        <v>1.603444595303347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.302533149485171</v>
@@ -34304,7 +34040,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.603930916349378</v>
+        <v>1.599899931137671</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.190398282386936</v>
@@ -34393,7 +34129,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.608363321192406</v>
+        <v>1.602665063202124</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.228679306372623</v>
@@ -34482,7 +34218,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59906570207376</v>
+        <v>1.59555872730304</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.309536264647517</v>
@@ -34571,7 +34307,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.596192174258221</v>
+        <v>1.59827582600487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.263255432643224</v>
@@ -34660,7 +34396,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.597714524090648</v>
+        <v>1.59970840995955</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.340638882009501</v>
@@ -34749,7 +34485,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594040795971164</v>
+        <v>1.596941762186936</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.37187535931393</v>
@@ -34838,7 +34574,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.599581800991643</v>
+        <v>1.602745252985218</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.112324663494438</v>
@@ -34927,7 +34663,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642477939740318</v>
+        <v>1.627258227162056</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.044029951304019</v>
@@ -35016,7 +34752,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.647765359275801</v>
+        <v>1.63459473719568</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.356737522263092</v>
@@ -35105,7 +34841,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.649796444763893</v>
+        <v>1.636174536516928</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.935734412938322</v>
@@ -35194,7 +34930,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.649711882157336</v>
+        <v>1.639368058399979</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.15328068240598</v>
@@ -35283,7 +35019,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644934334577426</v>
+        <v>1.63958537698225</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.348710789393925</v>
@@ -35372,7 +35108,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.644328564009922</v>
+        <v>1.633170281922221</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.782530728146043</v>
@@ -35461,7 +35197,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.641496744065552</v>
+        <v>1.632839849396527</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.948549117366488</v>
@@ -35550,7 +35286,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64009819702884</v>
+        <v>1.63561340339188</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.546238157343061</v>
@@ -35639,7 +35375,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638474559874568</v>
+        <v>1.63090953041753</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.244298452750212</v>
@@ -35728,7 +35464,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.632485448180184</v>
+        <v>1.624128673119249</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.371199940954556</v>
@@ -35817,7 +35553,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.646870716610288</v>
+        <v>1.635901719008882</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.683572460785305</v>
@@ -35906,7 +35642,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.658312560896216</v>
+        <v>1.63957493691064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.664340283220237</v>
@@ -35995,7 +35731,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.662770683510663</v>
+        <v>1.641642220662823</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.644370968764484</v>
@@ -36084,7 +35820,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652875517108595</v>
+        <v>1.634674976407067</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.977516531788811</v>
@@ -36173,7 +35909,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.657683501376604</v>
+        <v>1.639545989633555</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.889229555521119</v>
@@ -36262,7 +35998,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.664010021787846</v>
+        <v>1.64210814840797</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.056664212412874</v>
@@ -36351,7 +36087,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.66385333827459</v>
+        <v>1.639307340328595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.066323884932745</v>
@@ -36440,7 +36176,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.664746700811876</v>
+        <v>1.639247467808554</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.164307046197012</v>
@@ -36529,7 +36265,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.676400800761295</v>
+        <v>1.640907241834735</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.007165956108616</v>
@@ -36618,7 +36354,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.683364847910336</v>
+        <v>1.64526921169115</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.967435351714931</v>
@@ -36707,7 +36443,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.681144524307751</v>
+        <v>1.644378906613027</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.829551148067729</v>
@@ -36796,7 +36532,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.68971695157823</v>
+        <v>1.646361853686809</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.323688853900899</v>
@@ -36885,7 +36621,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.694539836522531</v>
+        <v>1.649042061367815</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.939215757418559</v>
@@ -36974,7 +36710,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700724958813127</v>
+        <v>1.655805861348915</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.827453139386186</v>
@@ -37063,7 +36799,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.711597306139351</v>
+        <v>1.657099398971253</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.137732539697489</v>
@@ -37152,7 +36888,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.710977385619846</v>
+        <v>1.654421233071327</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.931380291375691</v>
@@ -37241,7 +36977,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.707454823774245</v>
+        <v>1.657056494312319</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.19595175730698</v>
@@ -37330,7 +37066,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.708466643838338</v>
+        <v>1.655534002099162</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.845759729078749</v>
@@ -37419,7 +37155,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.723311396423779</v>
+        <v>1.664255947070509</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.107165790391336</v>
@@ -37508,7 +37244,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.721697302959199</v>
+        <v>1.663602462636129</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.389549385756181</v>
@@ -37597,7 +37333,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.724119196795716</v>
+        <v>1.667340855868663</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.155833498643831</v>
@@ -37686,7 +37422,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.72272399548625</v>
+        <v>1.668354832136227</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.873602049353034</v>
@@ -37775,7 +37511,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.717076348514898</v>
+        <v>1.667337506885447</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.800816509359818</v>
@@ -37864,7 +37600,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.710518016080712</v>
+        <v>1.666916003747612</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.588246299488556</v>
@@ -37953,7 +37689,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.718532077790015</v>
+        <v>1.675511559173953</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.840817050922652</v>
@@ -38042,7 +37778,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.718405102903661</v>
+        <v>1.676315748194683</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.053708322898204</v>
@@ -38131,7 +37867,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.719835295695586</v>
+        <v>1.677315845093765</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.034682175107967</v>
@@ -38220,7 +37956,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.723045327321935</v>
+        <v>1.681451568462132</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.154635903971217</v>
@@ -38309,7 +38045,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.733814203439229</v>
+        <v>1.693201821439134</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.817037082767699</v>
@@ -38398,7 +38134,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.723554907474141</v>
+        <v>1.690965705352435</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.564715412782781</v>
@@ -38487,7 +38223,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.727691742872184</v>
+        <v>1.694311671140051</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.920127135955092</v>
@@ -38576,7 +38312,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.720440942447533</v>
+        <v>1.68426759298603</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.991113823844238</v>
@@ -38665,7 +38401,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.715523433749787</v>
+        <v>1.685221901579782</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.710668514575266</v>
@@ -38754,7 +38490,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.720010692609636</v>
+        <v>1.690122968797639</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.951802791539984</v>
@@ -38843,7 +38579,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.711554924423492</v>
+        <v>1.680750365567411</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.689878022271211</v>
@@ -38932,7 +38668,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.717599381505382</v>
+        <v>1.688601947501171</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.795779748868363</v>
@@ -39021,7 +38757,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.715973007521417</v>
+        <v>1.686587714751249</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.702575964943938</v>
@@ -39110,7 +38846,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.700108854430965</v>
+        <v>1.673447876218557</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.542193330042879</v>
@@ -39199,7 +38935,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.696999462573427</v>
+        <v>1.668977432113381</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.297283320031045</v>
@@ -39288,7 +39024,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.691833438543405</v>
+        <v>1.663452435716073</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.84717930212982</v>
@@ -39377,7 +39113,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.693189032640422</v>
+        <v>1.662624143575488</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.263223517546983</v>
@@ -39466,7 +39202,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.692691869498581</v>
+        <v>1.668096312391303</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.533606526188425</v>
@@ -39555,7 +39291,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.680753030719114</v>
+        <v>1.655845637223341</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.889167979442516</v>
@@ -39644,7 +39380,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.676750538545621</v>
+        <v>1.651087277967374</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.536582063627982</v>
@@ -39733,7 +39469,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.669273430745642</v>
+        <v>1.64684944995261</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.623078442286543</v>
@@ -39822,7 +39558,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.661397391710342</v>
+        <v>1.642869286140812</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.817536040954521</v>
@@ -39911,7 +39647,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.66329175410985</v>
+        <v>1.646392968117498</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.481356349612667</v>
@@ -40000,7 +39736,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.658995212997673</v>
+        <v>1.640676079362659</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.556688063154246</v>
@@ -40089,7 +39825,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.660122582290203</v>
+        <v>1.644379446395154</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.922148298132979</v>
@@ -40178,7 +39914,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.658733762865759</v>
+        <v>1.644200383044132</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.746488015729772</v>
@@ -40267,7 +40003,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.659600781187266</v>
+        <v>1.645139127822433</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.5048377265284</v>
@@ -40356,7 +40092,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.664958164699768</v>
+        <v>1.652698100837363</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.616269960799656</v>
@@ -40445,7 +40181,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.667486964631561</v>
+        <v>1.655081625013135</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.562908733509038</v>
@@ -40731,7 +40467,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.882626908324244</v>
+        <v>1.890921173036545</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.554307005347739</v>
@@ -40820,7 +40556,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.886725934253502</v>
+        <v>1.895068081715195</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.029283088570639</v>
@@ -40909,7 +40645,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.882997581987454</v>
+        <v>1.891490610558996</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.716934895211628</v>
@@ -40998,7 +40734,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.900947262669868</v>
+        <v>1.90949949081205</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.667369596660052</v>
@@ -41087,7 +40823,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.893739435497582</v>
+        <v>1.900263022187223</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.761486809500235</v>
@@ -41176,7 +40912,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.900015512615618</v>
+        <v>1.904835156131414</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.659664283682149</v>
@@ -41265,7 +41001,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.891896346238974</v>
+        <v>1.899789111889438</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.530036712378863</v>
@@ -41354,7 +41090,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.879583245578238</v>
+        <v>1.887326288278163</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.261121267146327</v>
@@ -41443,7 +41179,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.851337015985619</v>
+        <v>1.864185080372655</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.907969844083548</v>
@@ -41532,7 +41268,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.835032768668616</v>
+        <v>1.853899095234406</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.033799358827482</v>
@@ -41621,7 +41357,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.839854162221858</v>
+        <v>1.858239293298274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.073412411681105</v>
@@ -41710,7 +41446,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.836143538624591</v>
+        <v>1.853552930334703</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.342673198383125</v>
@@ -41799,7 +41535,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.831246559852565</v>
+        <v>1.85401239459151</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.235026787148333</v>
@@ -41888,7 +41624,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.840346036816676</v>
+        <v>1.860470086859219</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.392409133862983</v>
@@ -41977,7 +41713,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.838810324185339</v>
+        <v>1.852134110850681</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.460112627474301</v>
@@ -42066,7 +41802,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.838311311280432</v>
+        <v>1.850025848364601</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.497232444450849</v>
@@ -42155,7 +41891,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.832725759708871</v>
+        <v>1.847246260444588</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.516666464769759</v>
@@ -42244,7 +41980,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.833591858349667</v>
+        <v>1.84651237812032</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.188533860525985</v>
@@ -42333,7 +42069,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.821305033120261</v>
+        <v>1.835068558584407</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.107937222476273</v>
@@ -42422,7 +42158,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.817669660436906</v>
+        <v>1.832988593679756</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.351432831663358</v>
@@ -42511,7 +42247,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.806876850489982</v>
+        <v>1.820417427283767</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.200596201049559</v>
@@ -42600,7 +42336,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.801023386398967</v>
+        <v>1.811757469200839</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.41132941335062</v>
@@ -42689,7 +42425,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.812946285194799</v>
+        <v>1.820537707989466</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.471492495312404</v>
@@ -42778,7 +42514,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.827805563168198</v>
+        <v>1.827828803929365</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.152622035990306</v>
@@ -42867,7 +42603,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.842709949916041</v>
+        <v>1.836966505416667</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.725612642985395</v>
@@ -42956,7 +42692,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.830786780646496</v>
+        <v>1.825790030893105</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.058086783144753</v>
@@ -43045,7 +42781,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.823660095274246</v>
+        <v>1.821647635882786</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.932484418134853</v>
@@ -43134,7 +42870,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.823004439664636</v>
+        <v>1.820777686266337</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.805298778093739</v>
@@ -43223,7 +42959,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.816449804723717</v>
+        <v>1.814142142531372</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.929160091110553</v>
@@ -43312,7 +43048,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.811890382077936</v>
+        <v>1.811791387460183</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.548443817702035</v>
@@ -43401,7 +43137,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.808678530320786</v>
+        <v>1.811019011775528</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.661483031086347</v>
@@ -43490,7 +43226,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.80156985203643</v>
+        <v>1.805406160715016</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.93413558520132</v>
@@ -43579,7 +43315,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.790418799244857</v>
+        <v>1.796544378986512</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.228986445567417</v>
@@ -43668,7 +43404,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.801201432036998</v>
+        <v>1.804071450374604</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.439441986931834</v>
@@ -43757,7 +43493,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.793789524349446</v>
+        <v>1.802411502323607</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.316397996082098</v>
@@ -43846,7 +43582,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.797470443132812</v>
+        <v>1.808412502903679</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.308915478800902</v>
@@ -43935,7 +43671,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.810278310635911</v>
+        <v>1.822644337912539</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.720097770658073</v>
@@ -44024,7 +43760,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.817183181612864</v>
+        <v>1.831096495905826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.724210747004554</v>
@@ -44113,7 +43849,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.820190608197882</v>
+        <v>1.835400619446264</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.682029689445822</v>
@@ -44202,7 +43938,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.830886518661527</v>
+        <v>1.846133262940836</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.534848683262836</v>
@@ -44291,7 +44027,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.837488038917942</v>
+        <v>1.853783414396037</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.748751529780788</v>
@@ -44380,7 +44116,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.851308021501993</v>
+        <v>1.867626319192658</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.620091357738187</v>
@@ -44469,7 +44205,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.852340903553786</v>
+        <v>1.861896147737717</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.600728204868334</v>
@@ -44558,7 +44294,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.857373262458979</v>
+        <v>1.866000225460505</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.014193676019103</v>
@@ -44647,7 +44383,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.859389009790817</v>
+        <v>1.867691539602499</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.115663478853437</v>
@@ -44736,7 +44472,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.866334646850876</v>
+        <v>1.870771756994493</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.081149951855468</v>
@@ -44825,7 +44561,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.869484847361277</v>
+        <v>1.872755545349527</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.56946781022053</v>
@@ -44914,7 +44650,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.885953768782104</v>
+        <v>1.88387152328343</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.050948653958966</v>
@@ -45003,7 +44739,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.887305271494229</v>
+        <v>1.888964220918677</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.34567280175972</v>
@@ -45092,7 +44828,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.886766605871345</v>
+        <v>1.885499039333355</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.442230304464296</v>
@@ -45181,7 +44917,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.895031330389048</v>
+        <v>1.894838616136976</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.219459150483484</v>
@@ -45270,7 +45006,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.891990842249618</v>
+        <v>1.893688985798204</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.886773289293889</v>
@@ -45359,7 +45095,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.886176913390409</v>
+        <v>1.889738032343226</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.12799542603303</v>
@@ -45448,7 +45184,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.870797941857321</v>
+        <v>1.880157762263907</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.108688694721715</v>
@@ -45537,7 +45273,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.797644440576685</v>
+        <v>1.82682398688103</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.622920653703658</v>
@@ -45626,7 +45362,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.7956053262766</v>
+        <v>1.824986380657633</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.592209406789406</v>
@@ -45715,7 +45451,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.791889728974217</v>
+        <v>1.819209099929984</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.763576162200135</v>
@@ -45804,7 +45540,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.793539736903419</v>
+        <v>1.826938197099482</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.681283419734234</v>
@@ -45893,7 +45629,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.793054803003779</v>
+        <v>1.822828196179038</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.727973233391182</v>
@@ -45982,7 +45718,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.799846932212493</v>
+        <v>1.830724942497091</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.703853274902747</v>
@@ -46071,7 +45807,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.80063967811327</v>
+        <v>1.831974895261513</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.603335567642006</v>
@@ -46160,7 +45896,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.792436635046887</v>
+        <v>1.824879176042567</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.688615759916583</v>
@@ -46249,7 +45985,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.792476485340322</v>
+        <v>1.825340077775502</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.669364484028286</v>
@@ -46338,7 +46074,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.77949465503484</v>
+        <v>1.808761111001836</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.771010444197079</v>
@@ -46427,7 +46163,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.78733401941963</v>
+        <v>1.81126985595633</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.605289937682385</v>
@@ -46516,7 +46252,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.780628076126579</v>
+        <v>1.80003808773712</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.632404140481295</v>
@@ -46605,7 +46341,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.766457814897328</v>
+        <v>1.7873241089982</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.703029494415829</v>
@@ -46694,7 +46430,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.773873816744029</v>
+        <v>1.788930833578874</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.710655637317458</v>
@@ -46783,7 +46519,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.786680470894791</v>
+        <v>1.79860848036328</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.478882031541359</v>
@@ -46872,7 +46608,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.855415160636311</v>
+        <v>1.851586324169734</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.16224397052667</v>
@@ -46961,7 +46697,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.848326438631651</v>
+        <v>1.843334911170472</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.531123475574876</v>
@@ -47050,7 +46786,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.840210011600812</v>
+        <v>1.838372161816897</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.622446587102527</v>
@@ -47139,7 +46875,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.840418659230828</v>
+        <v>1.837241523720038</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.440836353789222</v>
@@ -47228,7 +46964,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.828921560397973</v>
+        <v>1.830028482929746</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.419413933183687</v>
@@ -47317,7 +47053,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.818731999132217</v>
+        <v>1.825302591333477</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.799379858960079</v>
@@ -47406,7 +47142,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.813478202131661</v>
+        <v>1.82399842431028</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.4789929224104</v>
@@ -47495,7 +47231,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.80943415195185</v>
+        <v>1.822104606935444</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.677413557694497</v>
@@ -47584,7 +47320,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.806030482273714</v>
+        <v>1.821675035387676</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.943212875917669</v>
@@ -47673,7 +47409,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.817346244509171</v>
+        <v>1.837271282704182</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.259331713612791</v>
@@ -47762,7 +47498,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.805055031817328</v>
+        <v>1.830488395079712</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.29551324527141</v>
@@ -47851,7 +47587,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.816763825032736</v>
+        <v>1.844302243721168</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.555969335696696</v>
@@ -47940,7 +47676,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.825941115215096</v>
+        <v>1.853328445197103</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.102128390772518</v>
@@ -48029,7 +47765,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.822103322450423</v>
+        <v>1.853055353960469</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.767644180303042</v>
@@ -48118,7 +47854,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.826582949872127</v>
+        <v>1.855356891179704</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>4.355227562127358</v>
@@ -48207,7 +47943,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.823025443792217</v>
+        <v>1.852386236336145</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.290156364635313</v>
@@ -48296,7 +48032,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.806938597831628</v>
+        <v>1.842531391094212</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.971088603318123</v>
@@ -48385,7 +48121,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.800046880093694</v>
+        <v>1.835664475749032</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.49125714713649</v>
@@ -48671,7 +48407,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289329604741488</v>
+        <v>1.274393337192042</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.402903033485438</v>
@@ -48760,7 +48496,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.27775483009039</v>
+        <v>1.264205956297212</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.445733317780489</v>
@@ -48849,7 +48585,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.285340921259029</v>
+        <v>1.274376928435644</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.650737588540881</v>
@@ -48938,7 +48674,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.295486157756902</v>
+        <v>1.285057087519945</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.502383883873599</v>
@@ -49027,7 +48763,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.306172005696302</v>
+        <v>1.296627160358142</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.378290904040399</v>
@@ -49116,7 +48852,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.324084740696493</v>
+        <v>1.317037352560615</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.506394016541562</v>
@@ -49205,7 +48941,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.344272162584821</v>
+        <v>1.336872907651178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.492499566687516</v>
@@ -49294,7 +49030,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.343728189656009</v>
+        <v>1.33831312646849</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.525580714426041</v>
@@ -49383,7 +49119,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.354516521358813</v>
+        <v>1.351422350542308</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.348902442565256</v>
@@ -49472,7 +49208,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.343646862192714</v>
+        <v>1.345038754146705</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.317677005560074</v>
@@ -49561,7 +49297,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.353122700507342</v>
+        <v>1.349663881471176</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.197577153723931</v>
@@ -49650,7 +49386,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.334725892267091</v>
+        <v>1.3319341199531</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.283478345378329</v>
@@ -49739,7 +49475,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.343264414204616</v>
+        <v>1.339782296743316</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.359394494721325</v>
@@ -49828,7 +49564,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.331638862553774</v>
+        <v>1.327901956577764</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.213175744910186</v>
@@ -49917,7 +49653,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.335146650441161</v>
+        <v>1.33007121443838</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.297721627568947</v>
@@ -50006,7 +49742,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.338892288332768</v>
+        <v>1.32554814794004</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.138212107256254</v>
@@ -50095,7 +49831,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.338218132180047</v>
+        <v>1.331416843772323</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.276534430067823</v>
@@ -50184,7 +49920,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.336262366059817</v>
+        <v>1.328667509848941</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.226705699258687</v>
@@ -50273,7 +50009,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.331834667616425</v>
+        <v>1.325498416329679</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.195359098240517</v>
@@ -50362,7 +50098,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.319776356508111</v>
+        <v>1.31606181710667</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.309959542002922</v>
@@ -50451,7 +50187,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.31793924564529</v>
+        <v>1.313974266887399</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.340257851885457</v>
@@ -50540,7 +50276,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.320220784352273</v>
+        <v>1.315689025914885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.29790033732368</v>
@@ -50629,7 +50365,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.309154491103218</v>
+        <v>1.302168545217096</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.454400152187896</v>
@@ -50718,7 +50454,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.297124807597808</v>
+        <v>1.287997301365756</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.190636264803894</v>
@@ -50807,7 +50543,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.301872758406472</v>
+        <v>1.288344196784534</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.266975611402897</v>
@@ -50896,7 +50632,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.2916685681663</v>
+        <v>1.277232761055799</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.217614093693375</v>
@@ -50985,7 +50721,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.295264076648937</v>
+        <v>1.279584278585733</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.382340159173051</v>
@@ -51074,7 +50810,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.30200304945817</v>
+        <v>1.290655205794361</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.294089373712564</v>
@@ -51163,7 +50899,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.297535073817114</v>
+        <v>1.287297611256958</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.367177799735396</v>
@@ -51252,7 +50988,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.287017723705323</v>
+        <v>1.27357347740563</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.254022857841627</v>
@@ -51341,7 +51077,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.28788385633007</v>
+        <v>1.278131607949091</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.261282883980693</v>
@@ -51430,7 +51166,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.285726776851356</v>
+        <v>1.274383367819032</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.309560270696809</v>
@@ -51519,7 +51255,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.28142171391604</v>
+        <v>1.265640424811992</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.347170836370752</v>
@@ -51608,7 +51344,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.283558547297083</v>
+        <v>1.269752489183294</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.357920728352505</v>
@@ -51697,7 +51433,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.280673035045108</v>
+        <v>1.263245703258701</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.321857223977164</v>
@@ -51786,7 +51522,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.281119624968343</v>
+        <v>1.263731738638386</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.417080598674636</v>
@@ -51875,7 +51611,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.276401106310959</v>
+        <v>1.260692745668964</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.304863117012359</v>
@@ -51964,7 +51700,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.290883031447901</v>
+        <v>1.275972669113997</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.416503493373981</v>
@@ -52053,7 +51789,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.292532963880531</v>
+        <v>1.27590872098411</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.395000409919578</v>
@@ -52142,7 +51878,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.2901345047742</v>
+        <v>1.27576701067067</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.223019703989438</v>
@@ -52231,7 +51967,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.301958484759873</v>
+        <v>1.290712972113274</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.287154049821818</v>
@@ -52320,7 +52056,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.309779782316327</v>
+        <v>1.300858750868368</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.160664062874729</v>
@@ -52409,7 +52145,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.301652390253206</v>
+        <v>1.290730167634302</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.311391022282113</v>
@@ -52498,7 +52234,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.322890100869355</v>
+        <v>1.308365705099251</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.456833283530852</v>
@@ -52587,7 +52323,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.311738442892072</v>
+        <v>1.303014909691547</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.265058959300154</v>
@@ -52676,7 +52412,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.324917011099294</v>
+        <v>1.308826667634899</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.251520542489711</v>
@@ -52765,7 +52501,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.307585474026302</v>
+        <v>1.296847148115315</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.187150954453984</v>
@@ -52854,7 +52590,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.319381354938483</v>
+        <v>1.307323804746189</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.108812934699192</v>
@@ -52943,7 +52679,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.310492740721017</v>
+        <v>1.298247940717152</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.222080696418894</v>
@@ -53032,7 +52768,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.311629814902153</v>
+        <v>1.304051509413518</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.28153636153423</v>
@@ -53121,7 +52857,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.311287957784821</v>
+        <v>1.298836151389141</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.170199079035152</v>
@@ -53210,7 +52946,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.307594893000608</v>
+        <v>1.293549211978664</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.307604612781207</v>
@@ -53299,7 +53035,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.294617891274307</v>
+        <v>1.28456819392681</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.223845172171426</v>
@@ -53388,7 +53124,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.308394842574388</v>
+        <v>1.302588489745282</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.163651761265478</v>
@@ -53477,7 +53213,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.306766563517537</v>
+        <v>1.301067926506088</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.230552528145487</v>
@@ -53566,7 +53302,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.300567475859689</v>
+        <v>1.291940418106727</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.145829617883816</v>
@@ -53655,7 +53391,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.290791951938512</v>
+        <v>1.280199777048496</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.36318488336116</v>
@@ -53744,7 +53480,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.298320291886692</v>
+        <v>1.28987522345629</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.470685365452643</v>
@@ -53833,7 +53569,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.314083639230034</v>
+        <v>1.299203841095927</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.514386188972454</v>
@@ -53922,7 +53658,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.294925373955703</v>
+        <v>1.285978909833013</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.323068802381113</v>
@@ -54011,7 +53747,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.306867476621245</v>
+        <v>1.299358524197897</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.526273994503179</v>
@@ -54100,7 +53836,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.309367005675827</v>
+        <v>1.301633145678419</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.32039958095841</v>
@@ -54189,7 +53925,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.333646770500202</v>
+        <v>1.328003538880844</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.246657551286958</v>
@@ -54278,7 +54014,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.333521015643423</v>
+        <v>1.328763265483309</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.211871799221978</v>
@@ -54367,7 +54103,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.320773192262276</v>
+        <v>1.315273953017666</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.325977395328483</v>
@@ -54456,7 +54192,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.317662118983244</v>
+        <v>1.311909660006929</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.345979230404653</v>
@@ -54545,7 +54281,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.327193307489042</v>
+        <v>1.322042103335919</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.184453174523125</v>
@@ -54634,7 +54370,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.332533910179901</v>
+        <v>1.327415655756721</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.380676990005965</v>
@@ -54723,7 +54459,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.343848954096316</v>
+        <v>1.334432573188515</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.174681918240875</v>
@@ -54812,7 +54548,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.357338875111848</v>
+        <v>1.353672162774531</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.171853722939433</v>
@@ -54901,7 +54637,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.366181758103697</v>
+        <v>1.358959990597972</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.137903465073742</v>
@@ -54990,7 +54726,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.383098053505894</v>
+        <v>1.381682970314632</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.245289988752968</v>
@@ -55079,7 +54815,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.401315030924307</v>
+        <v>1.395914880227027</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.145794910056575</v>
@@ -55168,7 +54904,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.405467093442729</v>
+        <v>1.398254368638398</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.35122954473999</v>
@@ -55257,7 +54993,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.421176016245146</v>
+        <v>1.424049761981085</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.185558670453138</v>
@@ -55346,7 +55082,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.442966473870926</v>
+        <v>1.446789644859435</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.503530101226345</v>
@@ -55435,7 +55171,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.43299350177171</v>
+        <v>1.435530463054609</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.248513910420121</v>
@@ -55524,7 +55260,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.434374618487278</v>
+        <v>1.437757462385862</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.249790716416312</v>
@@ -55613,7 +55349,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.436760810682131</v>
+        <v>1.442326831668048</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.165047260957894</v>
@@ -55702,7 +55438,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.436099139681772</v>
+        <v>1.437707986308707</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.320486607732723</v>
@@ -55791,7 +55527,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.455642883380795</v>
+        <v>1.458176096351856</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.286569749268659</v>
@@ -55880,7 +55616,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.444006851021262</v>
+        <v>1.444305108814165</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.175643435242601</v>
@@ -55969,7 +55705,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.437946108195458</v>
+        <v>1.441400121196591</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.211079204097254</v>
@@ -56058,7 +55794,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.407178793805611</v>
+        <v>1.409180138439754</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.318377521266318</v>
@@ -56147,7 +55883,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.388228873812195</v>
+        <v>1.38749393284751</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.231676674695527</v>
@@ -56236,7 +55972,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.39549461431271</v>
+        <v>1.39567379884419</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.228539007661697</v>
@@ -56325,7 +56061,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.371698300462931</v>
+        <v>1.368416642362772</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.328969844815898</v>
